--- a/BackTest/2019-10-21 BackTest OGO.xlsx
+++ b/BackTest/2019-10-21 BackTest OGO.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>0.6000000000000014</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>-20.00000000000028</v>
+      </c>
       <c r="L12" t="n">
         <v>17.43</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>0.6999999999999993</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-33.33333333333333</v>
+      </c>
       <c r="L13" t="n">
         <v>17.41</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>0.8999999999999986</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>-50</v>
+      </c>
       <c r="L14" t="n">
         <v>17.37</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>1.099999999999998</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>-20</v>
+      </c>
       <c r="L15" t="n">
         <v>17.35</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>1.299999999999997</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>-33.33333333333333</v>
+      </c>
       <c r="L16" t="n">
         <v>17.31</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>1.499999999999996</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>-14.28571428571428</v>
+      </c>
       <c r="L17" t="n">
         <v>17.29</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>1.699999999999996</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>-25</v>
+      </c>
       <c r="L18" t="n">
         <v>17.25</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>1.899999999999995</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>6.666666666666793</v>
+      </c>
       <c r="L19" t="n">
         <v>17.23</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>2.099999999999994</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>-5.882352941176372</v>
+      </c>
       <c r="L20" t="n">
         <v>17.22</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>2.299999999999994</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>-5.882352941176372</v>
+      </c>
       <c r="L21" t="n">
         <v>17.23</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>2.499999999999993</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>-11.11111111111111</v>
+      </c>
       <c r="L22" t="n">
         <v>17.2</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>2.499999999999993</v>
       </c>
       <c r="K23" t="n">
-        <v>-16.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>17.18</v>
@@ -1466,7 +1488,7 @@
         <v>2.599999999999991</v>
       </c>
       <c r="K24" t="n">
-        <v>-12.00000000000008</v>
+        <v>-6.666666666666793</v>
       </c>
       <c r="L24" t="n">
         <v>17.19</v>
@@ -1515,7 +1537,7 @@
         <v>2.699999999999992</v>
       </c>
       <c r="K25" t="n">
-        <v>-7.692307692307693</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L25" t="n">
         <v>17.19</v>
@@ -1564,7 +1586,7 @@
         <v>2.799999999999994</v>
       </c>
       <c r="K26" t="n">
-        <v>-11.11111111111117</v>
+        <v>-7.692307692307819</v>
       </c>
       <c r="L26" t="n">
         <v>17.2</v>
@@ -1613,7 +1635,7 @@
         <v>2.899999999999995</v>
       </c>
       <c r="K27" t="n">
-        <v>-7.142857142857134</v>
+        <v>16.66666666666662</v>
       </c>
       <c r="L27" t="n">
         <v>17.2</v>
@@ -1662,7 +1684,7 @@
         <v>3.099999999999994</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>16.66666666666662</v>
       </c>
       <c r="L28" t="n">
         <v>17.24</v>
@@ -1711,7 +1733,7 @@
         <v>3.299999999999994</v>
       </c>
       <c r="K29" t="n">
-        <v>-6.249999999999993</v>
+        <v>16.66666666666662</v>
       </c>
       <c r="L29" t="n">
         <v>17.24</v>
@@ -1760,7 +1782,7 @@
         <v>3.499999999999993</v>
       </c>
       <c r="K30" t="n">
-        <v>9.677419354838761</v>
+        <v>16.66666666666662</v>
       </c>
       <c r="L30" t="n">
         <v>17.28</v>
@@ -1809,7 +1831,7 @@
         <v>3.499999999999993</v>
       </c>
       <c r="K31" t="n">
-        <v>9.677419354838761</v>
+        <v>39.99999999999986</v>
       </c>
       <c r="L31" t="n">
         <v>17.3</v>
@@ -1860,7 +1882,7 @@
         <v>3.499999999999993</v>
       </c>
       <c r="K32" t="n">
-        <v>3.448275862069024</v>
+        <v>39.99999999999986</v>
       </c>
       <c r="L32" t="n">
         <v>17.34</v>
@@ -1911,7 +1933,7 @@
         <v>3.499999999999993</v>
       </c>
       <c r="K33" t="n">
-        <v>7.142857142857134</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L33" t="n">
         <v>17.38</v>
@@ -1962,7 +1984,7 @@
         <v>3.499999999999993</v>
       </c>
       <c r="K34" t="n">
-        <v>15.38461538461536</v>
+        <v>24.99999999999989</v>
       </c>
       <c r="L34" t="n">
         <v>17.41</v>
@@ -2013,7 +2035,7 @@
         <v>3.599999999999994</v>
       </c>
       <c r="K35" t="n">
-        <v>3.99999999999992</v>
+        <v>24.99999999999989</v>
       </c>
       <c r="L35" t="n">
         <v>17.42</v>
@@ -2064,7 +2086,7 @@
         <v>3.899999999999995</v>
       </c>
       <c r="K36" t="n">
-        <v>23.07692307692301</v>
+        <v>39.99999999999986</v>
       </c>
       <c r="L36" t="n">
         <v>17.47</v>
@@ -2115,7 +2137,7 @@
         <v>3.999999999999993</v>
       </c>
       <c r="K37" t="n">
-        <v>12.00000000000005</v>
+        <v>11.11111111111129</v>
       </c>
       <c r="L37" t="n">
         <v>17.5</v>
@@ -2166,7 +2188,7 @@
         <v>3.999999999999993</v>
       </c>
       <c r="K38" t="n">
-        <v>21.73913043478263</v>
+        <v>42.857142857143</v>
       </c>
       <c r="L38" t="n">
         <v>17.51</v>
@@ -2217,7 +2239,7 @@
         <v>4.199999999999996</v>
       </c>
       <c r="K39" t="n">
-        <v>4.347826086956428</v>
+        <v>-14.28571428571443</v>
       </c>
       <c r="L39" t="n">
         <v>17.52</v>
@@ -2268,7 +2290,7 @@
         <v>4.399999999999999</v>
       </c>
       <c r="K40" t="n">
-        <v>21.73913043478257</v>
+        <v>11.1111111111112</v>
       </c>
       <c r="L40" t="n">
         <v>17.53</v>
@@ -2319,7 +2341,7 @@
         <v>4.399999999999999</v>
       </c>
       <c r="K41" t="n">
-        <v>14.28571428571428</v>
+        <v>11.1111111111112</v>
       </c>
       <c r="L41" t="n">
         <v>17.54</v>
@@ -2370,7 +2392,7 @@
         <v>4.499999999999996</v>
       </c>
       <c r="K42" t="n">
-        <v>29.99999999999984</v>
+        <v>19.99999999999986</v>
       </c>
       <c r="L42" t="n">
         <v>17.56</v>
@@ -2421,7 +2443,7 @@
         <v>4.699999999999996</v>
       </c>
       <c r="K43" t="n">
-        <v>36.36363636363619</v>
+        <v>33.33333333333314</v>
       </c>
       <c r="L43" t="n">
         <v>17.6</v>
@@ -2472,7 +2494,7 @@
         <v>4.699999999999996</v>
       </c>
       <c r="K44" t="n">
-        <v>33.33333333333322</v>
+        <v>45.4545454545454</v>
       </c>
       <c r="L44" t="n">
         <v>17.64</v>
@@ -2523,7 +2545,7 @@
         <v>4.999999999999993</v>
       </c>
       <c r="K45" t="n">
-        <v>13.04347826086959</v>
+        <v>-9.090909090908914</v>
       </c>
       <c r="L45" t="n">
         <v>17.66</v>
@@ -2574,7 +2596,7 @@
         <v>5.29999999999999</v>
       </c>
       <c r="K46" t="n">
-        <v>28.00000000000001</v>
+        <v>23.07692307692291</v>
       </c>
       <c r="L46" t="n">
         <v>17.68</v>
@@ -2625,7 +2647,7 @@
         <v>5.29999999999999</v>
       </c>
       <c r="K47" t="n">
-        <v>24.99999999999996</v>
+        <v>23.07692307692291</v>
       </c>
       <c r="L47" t="n">
         <v>17.71</v>
@@ -2676,7 +2698,7 @@
         <v>5.599999999999987</v>
       </c>
       <c r="K48" t="n">
-        <v>4.000000000000068</v>
+        <v>14.28571428571458</v>
       </c>
       <c r="L48" t="n">
         <v>17.71</v>
@@ -2727,7 +2749,7 @@
         <v>5.899999999999984</v>
       </c>
       <c r="K49" t="n">
-        <v>23.07692307692308</v>
+        <v>20</v>
       </c>
       <c r="L49" t="n">
         <v>17.76</v>
@@ -2778,7 +2800,7 @@
         <v>6.599999999999984</v>
       </c>
       <c r="K50" t="n">
-        <v>-9.677419354838761</v>
+        <v>-18.1818181818184</v>
       </c>
       <c r="L50" t="n">
         <v>17.72</v>
@@ -2829,7 +2851,7 @@
         <v>6.999999999999986</v>
       </c>
       <c r="K51" t="n">
-        <v>2.857142857142903</v>
+        <v>-3.999999999999932</v>
       </c>
       <c r="L51" t="n">
         <v>17.72</v>
@@ -2880,7 +2902,7 @@
         <v>7.499999999999986</v>
       </c>
       <c r="K52" t="n">
-        <v>-9.999999999999982</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L52" t="n">
         <v>17.66</v>
@@ -2931,7 +2953,7 @@
         <v>7.499999999999986</v>
       </c>
       <c r="K53" t="n">
-        <v>-9.999999999999982</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L53" t="n">
         <v>17.58</v>
@@ -2982,7 +3004,7 @@
         <v>7.499999999999986</v>
       </c>
       <c r="K54" t="n">
-        <v>-9.999999999999982</v>
+        <v>-20.00000000000006</v>
       </c>
       <c r="L54" t="n">
         <v>17.5</v>
@@ -3033,7 +3055,7 @@
         <v>7.899999999999984</v>
       </c>
       <c r="K55" t="n">
-        <v>2.325581395348876</v>
+        <v>-15.38461538461536</v>
       </c>
       <c r="L55" t="n">
         <v>17.49</v>
@@ -3084,7 +3106,7 @@
         <v>8.299999999999983</v>
       </c>
       <c r="K56" t="n">
-        <v>-13.63636363636362</v>
+        <v>-26.66666666666663</v>
       </c>
       <c r="L56" t="n">
         <v>17.41</v>
@@ -3135,7 +3157,7 @@
         <v>8.299999999999983</v>
       </c>
       <c r="K57" t="n">
-        <v>-11.62790697674421</v>
+        <v>-18.51851851851855</v>
       </c>
       <c r="L57" t="n">
         <v>17.32999999999999</v>
@@ -3186,7 +3208,7 @@
         <v>8.299999999999983</v>
       </c>
       <c r="K58" t="n">
-        <v>-11.62790697674421</v>
+        <v>-33.33333333333324</v>
       </c>
       <c r="L58" t="n">
         <v>17.27999999999999</v>
@@ -3237,7 +3259,7 @@
         <v>8.699999999999982</v>
       </c>
       <c r="K59" t="n">
-        <v>2.222222222222261</v>
+        <v>14.28571428571433</v>
       </c>
       <c r="L59" t="n">
         <v>17.23999999999999</v>
@@ -3288,7 +3310,7 @@
         <v>8.899999999999981</v>
       </c>
       <c r="K60" t="n">
-        <v>-6.666666666666708</v>
+        <v>-15.78947368421061</v>
       </c>
       <c r="L60" t="n">
         <v>17.25</v>
@@ -3339,7 +3361,7 @@
         <v>8.899999999999981</v>
       </c>
       <c r="K61" t="n">
-        <v>-6.666666666666708</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L61" t="n">
         <v>17.22</v>
@@ -3390,7 +3412,7 @@
         <v>9.09999999999998</v>
       </c>
       <c r="K62" t="n">
-        <v>-13.04347826086956</v>
+        <v>0</v>
       </c>
       <c r="L62" t="n">
         <v>17.22</v>
@@ -3441,7 +3463,7 @@
         <v>9.199999999999978</v>
       </c>
       <c r="K63" t="n">
-        <v>-15.5555555555556</v>
+        <v>5.882352941176372</v>
       </c>
       <c r="L63" t="n">
         <v>17.23</v>
@@ -3492,7 +3514,7 @@
         <v>9.399999999999977</v>
       </c>
       <c r="K64" t="n">
-        <v>-10.63829787234047</v>
+        <v>-6.666666666666793</v>
       </c>
       <c r="L64" t="n">
         <v>17.26</v>
@@ -3543,7 +3565,7 @@
         <v>9.699999999999974</v>
       </c>
       <c r="K65" t="n">
-        <v>-10.63829787234047</v>
+        <v>0</v>
       </c>
       <c r="L65" t="n">
         <v>17.22</v>
@@ -3594,7 +3616,7 @@
         <v>9.699999999999974</v>
       </c>
       <c r="K66" t="n">
-        <v>-18.18181818181818</v>
+        <v>0</v>
       </c>
       <c r="L66" t="n">
         <v>17.22</v>
@@ -3645,7 +3667,7 @@
         <v>9.799999999999972</v>
       </c>
       <c r="K67" t="n">
-        <v>-15.5555555555556</v>
+        <v>6.666666666666572</v>
       </c>
       <c r="L67" t="n">
         <v>17.23</v>
@@ -3696,7 +3718,7 @@
         <v>9.799999999999972</v>
       </c>
       <c r="K68" t="n">
-        <v>-9.523809523809607</v>
+        <v>-27.27272727272756</v>
       </c>
       <c r="L68" t="n">
         <v>17.24</v>
@@ -3747,7 +3769,7 @@
         <v>9.799999999999972</v>
       </c>
       <c r="K69" t="n">
-        <v>-17.94871794871798</v>
+        <v>-11.11111111111137</v>
       </c>
       <c r="L69" t="n">
         <v>17.21</v>
@@ -3798,7 +3820,7 @@
         <v>9.799999999999972</v>
       </c>
       <c r="K70" t="n">
-        <v>0</v>
+        <v>-11.11111111111137</v>
       </c>
       <c r="L70" t="n">
         <v>17.2</v>
@@ -3849,7 +3871,7 @@
         <v>9.899999999999974</v>
       </c>
       <c r="K71" t="n">
-        <v>-10.34482758620696</v>
+        <v>25.00000000000011</v>
       </c>
       <c r="L71" t="n">
         <v>17.2</v>
@@ -3900,7 +3922,7 @@
         <v>10.19999999999997</v>
       </c>
       <c r="K72" t="n">
-        <v>-3.703703703703772</v>
+        <v>-20</v>
       </c>
       <c r="L72" t="n">
         <v>17.18999999999999</v>
@@ -3951,7 +3973,7 @@
         <v>10.29999999999998</v>
       </c>
       <c r="K73" t="n">
-        <v>-7.14285714285727</v>
+        <v>-55.55555555555565</v>
       </c>
       <c r="L73" t="n">
         <v>17.16</v>
@@ -4002,7 +4024,7 @@
         <v>10.59999999999998</v>
       </c>
       <c r="K74" t="n">
-        <v>3.225806451612844</v>
+        <v>11.11111111111085</v>
       </c>
       <c r="L74" t="n">
         <v>17.13999999999999</v>
@@ -4053,7 +4075,7 @@
         <v>10.59999999999998</v>
       </c>
       <c r="K75" t="n">
-        <v>-11.11111111111117</v>
+        <v>11.11111111111085</v>
       </c>
       <c r="L75" t="n">
         <v>17.15</v>
@@ -4104,7 +4126,7 @@
         <v>10.69999999999998</v>
       </c>
       <c r="K76" t="n">
-        <v>8.33333333333332</v>
+        <v>11.1111111111112</v>
       </c>
       <c r="L76" t="n">
         <v>17.16999999999999</v>
@@ -4155,7 +4177,7 @@
         <v>10.79999999999998</v>
       </c>
       <c r="K77" t="n">
-        <v>11.99999999999992</v>
+        <v>19.99999999999986</v>
       </c>
       <c r="L77" t="n">
         <v>17.19</v>
@@ -4206,7 +4228,7 @@
         <v>11.19999999999997</v>
       </c>
       <c r="K78" t="n">
-        <v>-3.448275862069024</v>
+        <v>-14.28571428571421</v>
       </c>
       <c r="L78" t="n">
         <v>17.17</v>
@@ -4257,7 +4279,7 @@
         <v>11.49999999999998</v>
       </c>
       <c r="K79" t="n">
-        <v>-7.142857142857134</v>
+        <v>5.882352941176544</v>
       </c>
       <c r="L79" t="n">
         <v>17.18</v>
@@ -4308,7 +4330,7 @@
         <v>11.99999999999998</v>
       </c>
       <c r="K80" t="n">
-        <v>-16.12903225806455</v>
+        <v>-23.8095238095238</v>
       </c>
       <c r="L80" t="n">
         <v>17.14</v>
@@ -4359,7 +4381,7 @@
         <v>12.79999999999998</v>
       </c>
       <c r="K81" t="n">
-        <v>7.69230769230772</v>
+        <v>23.07692307692312</v>
       </c>
       <c r="L81" t="n">
         <v>17.17</v>
@@ -4410,7 +4432,7 @@
         <v>12.89999999999997</v>
       </c>
       <c r="K82" t="n">
-        <v>15.7894736842105</v>
+        <v>30.76923076923082</v>
       </c>
       <c r="L82" t="n">
         <v>17.24</v>
@@ -4461,7 +4483,7 @@
         <v>13.69999999999997</v>
       </c>
       <c r="K83" t="n">
-        <v>-6.666666666666687</v>
+        <v>-9.67741935483874</v>
       </c>
       <c r="L83" t="n">
         <v>17.24</v>
@@ -4512,7 +4534,7 @@
         <v>14.19999999999997</v>
       </c>
       <c r="K84" t="n">
-        <v>0</v>
+        <v>5.555555555555539</v>
       </c>
       <c r="L84" t="n">
         <v>17.26</v>
@@ -4563,7 +4585,7 @@
         <v>14.69999999999997</v>
       </c>
       <c r="K85" t="n">
-        <v>-4.000000000000057</v>
+        <v>-10.00000000000006</v>
       </c>
       <c r="L85" t="n">
         <v>17.23</v>
@@ -4614,7 +4636,7 @@
         <v>14.69999999999997</v>
       </c>
       <c r="K86" t="n">
-        <v>-4.000000000000057</v>
+        <v>-12.82051282051282</v>
       </c>
       <c r="L86" t="n">
         <v>17.19</v>
@@ -4665,7 +4687,7 @@
         <v>14.79999999999998</v>
       </c>
       <c r="K87" t="n">
-        <v>-3.999999999999983</v>
+        <v>0</v>
       </c>
       <c r="L87" t="n">
         <v>17.15</v>
@@ -4716,7 +4738,7 @@
         <v>14.79999999999998</v>
       </c>
       <c r="K88" t="n">
-        <v>-3.999999999999983</v>
+        <v>-9.090909090909111</v>
       </c>
       <c r="L88" t="n">
         <v>17.15</v>
@@ -4767,7 +4789,7 @@
         <v>14.79999999999998</v>
       </c>
       <c r="K89" t="n">
-        <v>-3.999999999999983</v>
+        <v>7.142857142857116</v>
       </c>
       <c r="L89" t="n">
         <v>17.12</v>
@@ -4818,7 +4840,7 @@
         <v>14.79999999999998</v>
       </c>
       <c r="K90" t="n">
-        <v>-3.999999999999983</v>
+        <v>-30.00000000000007</v>
       </c>
       <c r="L90" t="n">
         <v>17.14</v>
@@ -4869,7 +4891,7 @@
         <v>14.99999999999998</v>
       </c>
       <c r="K91" t="n">
-        <v>-1.960784313725518</v>
+        <v>-23.8095238095238</v>
       </c>
       <c r="L91" t="n">
         <v>17.1</v>
@@ -4920,7 +4942,7 @@
         <v>14.99999999999998</v>
       </c>
       <c r="K92" t="n">
-        <v>4.166666666666651</v>
+        <v>23.07692307692312</v>
       </c>
       <c r="L92" t="n">
         <v>17.05</v>
@@ -4971,7 +4993,7 @@
         <v>15.19999999999997</v>
       </c>
       <c r="K93" t="n">
-        <v>10.20408163265306</v>
+        <v>0</v>
       </c>
       <c r="L93" t="n">
         <v>17.1</v>
@@ -5022,7 +5044,7 @@
         <v>15.29999999999998</v>
       </c>
       <c r="K94" t="n">
-        <v>6.382978723404271</v>
+        <v>100</v>
       </c>
       <c r="L94" t="n">
         <v>17.11</v>
@@ -5073,7 +5095,7 @@
         <v>15.39999999999998</v>
       </c>
       <c r="K95" t="n">
-        <v>8.333333333333377</v>
+        <v>100</v>
       </c>
       <c r="L95" t="n">
         <v>17.18</v>
@@ -5124,7 +5146,7 @@
         <v>15.59999999999998</v>
       </c>
       <c r="K96" t="n">
-        <v>2.040816326530568</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L96" t="n">
         <v>17.23</v>
@@ -5175,7 +5197,7 @@
         <v>16.09999999999998</v>
       </c>
       <c r="K97" t="n">
-        <v>9.433962264150935</v>
+        <v>69.2307692307689</v>
       </c>
       <c r="L97" t="n">
         <v>17.32</v>
@@ -5226,7 +5248,7 @@
         <v>16.49999999999998</v>
       </c>
       <c r="K98" t="n">
-        <v>24.52830188679243</v>
+        <v>76.47058823529387</v>
       </c>
       <c r="L98" t="n">
         <v>17.45</v>
@@ -5277,7 +5299,7 @@
         <v>16.69999999999998</v>
       </c>
       <c r="K99" t="n">
-        <v>23.07692307692303</v>
+        <v>78.9473684210524</v>
       </c>
       <c r="L99" t="n">
         <v>17.6</v>
@@ -5328,7 +5350,7 @@
         <v>16.79999999999998</v>
       </c>
       <c r="K100" t="n">
-        <v>37.49999999999996</v>
+        <v>77.77777777777756</v>
       </c>
       <c r="L100" t="n">
         <v>17.76</v>
@@ -5379,7 +5401,7 @@
         <v>17.09999999999998</v>
       </c>
       <c r="K101" t="n">
-        <v>30.23255813953479</v>
+        <v>80.95238095238074</v>
       </c>
       <c r="L101" t="n">
         <v>17.93</v>
@@ -5430,7 +5452,7 @@
         <v>18.09999999999998</v>
       </c>
       <c r="K102" t="n">
-        <v>42.30769230769224</v>
+        <v>86.20689655172397</v>
       </c>
       <c r="L102" t="n">
         <v>18.2</v>
@@ -5481,7 +5503,7 @@
         <v>18.69999999999998</v>
       </c>
       <c r="K103" t="n">
-        <v>48.00000000000001</v>
+        <v>52.94117647058822</v>
       </c>
       <c r="L103" t="n">
         <v>18.39</v>
@@ -5532,7 +5554,7 @@
         <v>18.79999999999998</v>
       </c>
       <c r="K104" t="n">
-        <v>39.13043478260867</v>
+        <v>47.05882352941168</v>
       </c>
       <c r="L104" t="n">
         <v>18.56</v>
@@ -5583,7 +5605,7 @@
         <v>19.29999999999998</v>
       </c>
       <c r="K105" t="n">
-        <v>39.13043478260867</v>
+        <v>35.13513513513516</v>
       </c>
       <c r="L105" t="n">
         <v>18.67</v>
@@ -5634,7 +5656,7 @@
         <v>19.29999999999998</v>
       </c>
       <c r="K106" t="n">
-        <v>39.13043478260867</v>
+        <v>25.00000000000003</v>
       </c>
       <c r="L106" t="n">
         <v>18.8</v>
@@ -5685,7 +5707,7 @@
         <v>19.39999999999998</v>
       </c>
       <c r="K107" t="n">
-        <v>39.13043478260867</v>
+        <v>17.24137931034484</v>
       </c>
       <c r="L107" t="n">
         <v>18.89</v>
@@ -5736,7 +5758,7 @@
         <v>19.59999999999998</v>
       </c>
       <c r="K108" t="n">
-        <v>41.66666666666663</v>
+        <v>17.24137931034484</v>
       </c>
       <c r="L108" t="n">
         <v>18.96</v>
@@ -5787,7 +5809,7 @@
         <v>20.09999999999998</v>
       </c>
       <c r="K109" t="n">
-        <v>47.16981132075468</v>
+        <v>27.27272727272726</v>
       </c>
       <c r="L109" t="n">
         <v>19.06</v>
@@ -5844,7 +5866,7 @@
         <v>20.59999999999998</v>
       </c>
       <c r="K110" t="n">
-        <v>34.48275862068963</v>
+        <v>2.857142857142898</v>
       </c>
       <c r="L110" t="n">
         <v>19.1</v>
@@ -5901,7 +5923,7 @@
         <v>20.69999999999998</v>
       </c>
       <c r="K111" t="n">
-        <v>29.82456140350872</v>
+        <v>-38.46153846153844</v>
       </c>
       <c r="L111" t="n">
         <v>19.1</v>
@@ -5958,7 +5980,7 @@
         <v>20.79999999999998</v>
       </c>
       <c r="K112" t="n">
-        <v>27.58620689655173</v>
+        <v>-23.8095238095238</v>
       </c>
       <c r="L112" t="n">
         <v>18.99</v>
@@ -6015,7 +6037,7 @@
         <v>20.89999999999998</v>
       </c>
       <c r="K113" t="n">
-        <v>22.80701754385964</v>
+        <v>-23.8095238095238</v>
       </c>
       <c r="L113" t="n">
         <v>18.93</v>
@@ -6072,7 +6094,7 @@
         <v>21.49999999999998</v>
       </c>
       <c r="K114" t="n">
-        <v>29.03225806451611</v>
+        <v>27.27272727272731</v>
       </c>
       <c r="L114" t="n">
         <v>18.94</v>
@@ -6129,7 +6151,7 @@
         <v>21.59999999999998</v>
       </c>
       <c r="K115" t="n">
-        <v>25.80645161290316</v>
+        <v>21.73913043478257</v>
       </c>
       <c r="L115" t="n">
         <v>18.99</v>
@@ -6186,7 +6208,7 @@
         <v>21.69999999999998</v>
       </c>
       <c r="K116" t="n">
-        <v>27.86885245901643</v>
+        <v>13.04347826086959</v>
       </c>
       <c r="L116" t="n">
         <v>19.03</v>
@@ -6243,7 +6265,7 @@
         <v>21.79999999999998</v>
       </c>
       <c r="K117" t="n">
-        <v>22.80701754385966</v>
+        <v>9.090909090909062</v>
       </c>
       <c r="L117" t="n">
         <v>19.07</v>
@@ -6300,7 +6322,7 @@
         <v>21.79999999999998</v>
       </c>
       <c r="K118" t="n">
-        <v>16.98113207547168</v>
+        <v>-17.64705882352946</v>
       </c>
       <c r="L118" t="n">
         <v>19.09</v>
@@ -6357,7 +6379,7 @@
         <v>22.29999999999998</v>
       </c>
       <c r="K119" t="n">
-        <v>21.42857142857142</v>
+        <v>41.17647058823527</v>
       </c>
       <c r="L119" t="n">
         <v>19.11</v>
@@ -6414,7 +6436,7 @@
         <v>22.79999999999998</v>
       </c>
       <c r="K120" t="n">
-        <v>9.99999999999997</v>
+        <v>14.28571428571433</v>
       </c>
       <c r="L120" t="n">
         <v>19.13</v>
@@ -6465,7 +6487,7 @@
         <v>22.89999999999998</v>
       </c>
       <c r="K121" t="n">
-        <v>6.896551724137967</v>
+        <v>23.8095238095238</v>
       </c>
       <c r="L121" t="n">
         <v>19.16999999999999</v>
@@ -6516,7 +6538,7 @@
         <v>23.09999999999998</v>
       </c>
       <c r="K122" t="n">
-        <v>-7.999999999999971</v>
+        <v>36.36363636363641</v>
       </c>
       <c r="L122" t="n">
         <v>19.23999999999999</v>
@@ -6567,7 +6589,7 @@
         <v>23.69999999999998</v>
       </c>
       <c r="K123" t="n">
-        <v>-8.000000000000037</v>
+        <v>-18.18181818181829</v>
       </c>
       <c r="L123" t="n">
         <v>19.26</v>
@@ -6669,7 +6691,7 @@
         <v>24.39999999999998</v>
       </c>
       <c r="K125" t="n">
-        <v>17.64705882352943</v>
+        <v>18.5185185185185</v>
       </c>
       <c r="L125" t="n">
         <v>19.29</v>
@@ -6720,7 +6742,7 @@
         <v>24.39999999999998</v>
       </c>
       <c r="K126" t="n">
-        <v>17.64705882352943</v>
+        <v>15.38461538461544</v>
       </c>
       <c r="L126" t="n">
         <v>19.34</v>
@@ -6771,7 +6793,7 @@
         <v>24.39999999999998</v>
       </c>
       <c r="K127" t="n">
-        <v>16</v>
+        <v>15.38461538461544</v>
       </c>
       <c r="L127" t="n">
         <v>19.38</v>
@@ -6822,7 +6844,7 @@
         <v>24.79999999999999</v>
       </c>
       <c r="K128" t="n">
-        <v>3.846153846153828</v>
+        <v>-19.99999999999994</v>
       </c>
       <c r="L128" t="n">
         <v>19.38</v>
@@ -6873,7 +6895,7 @@
         <v>25.19999999999999</v>
       </c>
       <c r="K129" t="n">
-        <v>1.960784313725515</v>
+        <v>16.66666666666669</v>
       </c>
       <c r="L129" t="n">
         <v>19.37</v>
@@ -6924,7 +6946,7 @@
         <v>25.49999999999999</v>
       </c>
       <c r="K130" t="n">
-        <v>6.122448979591839</v>
+        <v>0</v>
       </c>
       <c r="L130" t="n">
         <v>19.38</v>
@@ -6975,7 +6997,7 @@
         <v>25.89999999999999</v>
       </c>
       <c r="K131" t="n">
-        <v>0</v>
+        <v>-21.42857142857139</v>
       </c>
       <c r="L131" t="n">
         <v>19.34</v>
@@ -7026,7 +7048,7 @@
         <v>25.99999999999999</v>
       </c>
       <c r="K132" t="n">
-        <v>3.846153846153823</v>
+        <v>4.347826086956561</v>
       </c>
       <c r="L132" t="n">
         <v>19.29</v>
@@ -7077,7 +7099,7 @@
         <v>26.19999999999999</v>
       </c>
       <c r="K133" t="n">
-        <v>9.433962264150923</v>
+        <v>0</v>
       </c>
       <c r="L133" t="n">
         <v>19.32</v>
@@ -7128,7 +7150,7 @@
         <v>26.29999999999999</v>
       </c>
       <c r="K134" t="n">
-        <v>0</v>
+        <v>-15.78947368421049</v>
       </c>
       <c r="L134" t="n">
         <v>19.33</v>
@@ -7179,7 +7201,7 @@
         <v>26.29999999999999</v>
       </c>
       <c r="K135" t="n">
-        <v>2.127659574468111</v>
+        <v>-15.78947368421049</v>
       </c>
       <c r="L135" t="n">
         <v>19.3</v>
@@ -7230,7 +7252,7 @@
         <v>26.39999999999999</v>
       </c>
       <c r="K136" t="n">
-        <v>6.382978723404181</v>
+        <v>-10.00000000000011</v>
       </c>
       <c r="L136" t="n">
         <v>19.28</v>
@@ -7281,7 +7303,7 @@
         <v>26.79999999999999</v>
       </c>
       <c r="K137" t="n">
-        <v>-3.999999999999977</v>
+        <v>-9.999999999999947</v>
       </c>
       <c r="L137" t="n">
         <v>19.22</v>
@@ -7332,7 +7354,7 @@
         <v>27.39999999999999</v>
       </c>
       <c r="K138" t="n">
-        <v>7.142857142857166</v>
+        <v>0</v>
       </c>
       <c r="L138" t="n">
         <v>19.26</v>
@@ -7383,7 +7405,7 @@
         <v>28.09999999999999</v>
       </c>
       <c r="K139" t="n">
-        <v>-13.79310344827584</v>
+        <v>-15.38461538461544</v>
       </c>
       <c r="L139" t="n">
         <v>19.19</v>
@@ -7434,7 +7456,7 @@
         <v>28.59999999999999</v>
       </c>
       <c r="K140" t="n">
-        <v>3.448275862068945</v>
+        <v>18.5185185185185</v>
       </c>
       <c r="L140" t="n">
         <v>19.2</v>
@@ -7485,7 +7507,7 @@
         <v>29.09999999999999</v>
       </c>
       <c r="K141" t="n">
-        <v>-6.451612903225827</v>
+        <v>-3.225806451612947</v>
       </c>
       <c r="L141" t="n">
         <v>19.2</v>
@@ -7536,7 +7558,7 @@
         <v>29.2</v>
       </c>
       <c r="K142" t="n">
-        <v>-8.196721311475388</v>
+        <v>-6.666666666666635</v>
       </c>
       <c r="L142" t="n">
         <v>19.2</v>
@@ -7587,7 +7609,7 @@
         <v>29.2</v>
       </c>
       <c r="K143" t="n">
-        <v>1.818181818181839</v>
+        <v>-10.34482758620691</v>
       </c>
       <c r="L143" t="n">
         <v>19.18</v>
@@ -7638,7 +7660,7 @@
         <v>29.4</v>
       </c>
       <c r="K144" t="n">
-        <v>0</v>
+        <v>-3.225806451612947</v>
       </c>
       <c r="L144" t="n">
         <v>19.17</v>
@@ -7689,7 +7711,7 @@
         <v>29.5</v>
       </c>
       <c r="K145" t="n">
-        <v>-5.88235294117647</v>
+        <v>-3.22580645161283</v>
       </c>
       <c r="L145" t="n">
         <v>19.17</v>
@@ -7740,7 +7762,7 @@
         <v>29.6</v>
       </c>
       <c r="K146" t="n">
-        <v>-7.692307692307714</v>
+        <v>7.142857142857098</v>
       </c>
       <c r="L146" t="n">
         <v>19.15</v>
@@ -7791,7 +7813,7 @@
         <v>29.6</v>
       </c>
       <c r="K147" t="n">
-        <v>-7.692307692307714</v>
+        <v>-18.18181818181823</v>
       </c>
       <c r="L147" t="n">
         <v>19.17</v>
@@ -7842,7 +7864,7 @@
         <v>29.6</v>
       </c>
       <c r="K148" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L148" t="n">
         <v>19.13</v>
@@ -7893,7 +7915,7 @@
         <v>29.6</v>
       </c>
       <c r="K149" t="n">
-        <v>-9.09090909090912</v>
+        <v>-19.99999999999986</v>
       </c>
       <c r="L149" t="n">
         <v>19.16</v>
@@ -7944,7 +7966,7 @@
         <v>29.7</v>
       </c>
       <c r="K150" t="n">
-        <v>0</v>
+        <v>66.66666666666647</v>
       </c>
       <c r="L150" t="n">
         <v>19.15</v>
@@ -7995,7 +8017,7 @@
         <v>29.7</v>
       </c>
       <c r="K151" t="n">
-        <v>10.52631578947372</v>
+        <v>59.99999999999972</v>
       </c>
       <c r="L151" t="n">
         <v>19.19</v>
@@ -8046,7 +8068,7 @@
         <v>29.7</v>
       </c>
       <c r="K152" t="n">
-        <v>8.108108108108112</v>
+        <v>59.99999999999972</v>
       </c>
       <c r="L152" t="n">
         <v>19.22</v>
@@ -8097,7 +8119,7 @@
         <v>29.7</v>
       </c>
       <c r="K153" t="n">
-        <v>2.857142857142892</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L153" t="n">
         <v>19.25</v>
@@ -8199,7 +8221,7 @@
         <v>29.7</v>
       </c>
       <c r="K155" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L155" t="n">
         <v>19.26</v>
@@ -8250,7 +8272,7 @@
         <v>30.1</v>
       </c>
       <c r="K156" t="n">
-        <v>8.108108108108112</v>
+        <v>100</v>
       </c>
       <c r="L156" t="n">
         <v>19.31</v>
@@ -8301,7 +8323,7 @@
         <v>30.1</v>
       </c>
       <c r="K157" t="n">
-        <v>21.21212121212114</v>
+        <v>100</v>
       </c>
       <c r="L157" t="n">
         <v>19.36</v>
@@ -8352,7 +8374,7 @@
         <v>30.3</v>
       </c>
       <c r="K158" t="n">
-        <v>10.34482758620678</v>
+        <v>100</v>
       </c>
       <c r="L158" t="n">
         <v>19.43</v>
@@ -8403,7 +8425,7 @@
         <v>30.8</v>
       </c>
       <c r="K159" t="n">
-        <v>55.5555555555555</v>
+        <v>100</v>
       </c>
       <c r="L159" t="n">
         <v>19.55</v>
@@ -8454,7 +8476,7 @@
         <v>31.09999999999999</v>
       </c>
       <c r="K160" t="n">
-        <v>28.00000000000011</v>
+        <v>57.14285714285739</v>
       </c>
       <c r="L160" t="n">
         <v>19.63</v>
@@ -8505,7 +8527,7 @@
         <v>31.69999999999999</v>
       </c>
       <c r="K161" t="n">
-        <v>69.23076923076931</v>
+        <v>70.00000000000017</v>
       </c>
       <c r="L161" t="n">
         <v>19.77</v>
@@ -8556,7 +8578,7 @@
         <v>31.79999999999999</v>
       </c>
       <c r="K162" t="n">
-        <v>61.53846153846173</v>
+        <v>61.9047619047622</v>
       </c>
       <c r="L162" t="n">
         <v>19.9</v>
@@ -8607,7 +8629,7 @@
         <v>31.79999999999999</v>
       </c>
       <c r="K163" t="n">
-        <v>61.53846153846173</v>
+        <v>61.9047619047622</v>
       </c>
       <c r="L163" t="n">
         <v>20.03</v>
@@ -8658,7 +8680,7 @@
         <v>31.79999999999999</v>
       </c>
       <c r="K164" t="n">
-        <v>58.33333333333355</v>
+        <v>61.9047619047622</v>
       </c>
       <c r="L164" t="n">
         <v>20.16</v>
@@ -8709,7 +8731,7 @@
         <v>31.79999999999999</v>
       </c>
       <c r="K165" t="n">
-        <v>56.52173913043497</v>
+        <v>52.9411764705886</v>
       </c>
       <c r="L165" t="n">
         <v>20.29</v>
@@ -8760,7 +8782,7 @@
         <v>31.89999999999999</v>
       </c>
       <c r="K166" t="n">
-        <v>56.52173913043497</v>
+        <v>44.44444444444464</v>
       </c>
       <c r="L166" t="n">
         <v>20.37</v>
@@ -8811,7 +8833,7 @@
         <v>32.19999999999999</v>
       </c>
       <c r="K167" t="n">
-        <v>38.46153846153859</v>
+        <v>15.78947368421063</v>
       </c>
       <c r="L167" t="n">
         <v>20.41999999999999</v>
@@ -8862,7 +8884,7 @@
         <v>32.19999999999999</v>
       </c>
       <c r="K168" t="n">
-        <v>38.46153846153859</v>
+        <v>-14.28571428571432</v>
       </c>
       <c r="L168" t="n">
         <v>20.45</v>
@@ -8913,7 +8935,7 @@
         <v>32.59999999999999</v>
       </c>
       <c r="K169" t="n">
-        <v>20.00000000000012</v>
+        <v>-20.00000000000014</v>
       </c>
       <c r="L169" t="n">
         <v>20.38999999999999</v>
@@ -8964,7 +8986,7 @@
         <v>32.79999999999998</v>
       </c>
       <c r="K170" t="n">
-        <v>22.58064516129042</v>
+        <v>-63.6363636363641</v>
       </c>
       <c r="L170" t="n">
         <v>20.38</v>
@@ -9015,7 +9037,7 @@
         <v>32.99999999999999</v>
       </c>
       <c r="K171" t="n">
-        <v>15.15151515151521</v>
+        <v>-66.66666666666697</v>
       </c>
       <c r="L171" t="n">
         <v>20.29</v>
@@ -9066,7 +9088,7 @@
         <v>33.19999999999999</v>
       </c>
       <c r="K172" t="n">
-        <v>20.00000000000004</v>
+        <v>-42.857142857143</v>
       </c>
       <c r="L172" t="n">
         <v>20.23</v>
@@ -9117,7 +9139,7 @@
         <v>34.19999999999999</v>
       </c>
       <c r="K173" t="n">
-        <v>37.77777777777785</v>
+        <v>16.66666666666662</v>
       </c>
       <c r="L173" t="n">
         <v>20.27</v>
@@ -9168,7 +9190,7 @@
         <v>36.09999999999999</v>
       </c>
       <c r="K174" t="n">
-        <v>56.25000000000008</v>
+        <v>53.48837209302323</v>
       </c>
       <c r="L174" t="n">
         <v>20.5</v>
@@ -9219,7 +9241,7 @@
         <v>36.19999999999999</v>
       </c>
       <c r="K175" t="n">
-        <v>56.92307692307701</v>
+        <v>58.13953488372097</v>
       </c>
       <c r="L175" t="n">
         <v>20.74</v>
@@ -9270,7 +9292,7 @@
         <v>37.19999999999999</v>
       </c>
       <c r="K176" t="n">
-        <v>60.56338028169023</v>
+        <v>76.00000000000001</v>
       </c>
       <c r="L176" t="n">
         <v>21.09</v>
@@ -9321,7 +9343,7 @@
         <v>37.79999999999999</v>
       </c>
       <c r="K177" t="n">
-        <v>63.63636363636373</v>
+        <v>78.5714285714286</v>
       </c>
       <c r="L177" t="n">
         <v>21.53</v>
@@ -9372,7 +9394,7 @@
         <v>38.59999999999999</v>
       </c>
       <c r="K178" t="n">
-        <v>46.98795180722895</v>
+        <v>66.66666666666659</v>
       </c>
       <c r="L178" t="n">
         <v>21.89</v>
@@ -9423,7 +9445,7 @@
         <v>38.59999999999999</v>
       </c>
       <c r="K179" t="n">
-        <v>43.58974358974363</v>
+        <v>65.51724137931024</v>
       </c>
       <c r="L179" t="n">
         <v>22.29</v>
@@ -9474,7 +9496,7 @@
         <v>38.8</v>
       </c>
       <c r="K180" t="n">
-        <v>45.45454545454544</v>
+        <v>65.51724137931024</v>
       </c>
       <c r="L180" t="n">
         <v>22.65</v>
@@ -9525,7 +9547,7 @@
         <v>39.2</v>
       </c>
       <c r="K181" t="n">
-        <v>43.99999999999999</v>
+        <v>66.66666666666659</v>
       </c>
       <c r="L181" t="n">
         <v>23.07</v>
@@ -9576,7 +9598,7 @@
         <v>39.5</v>
       </c>
       <c r="K182" t="n">
-        <v>40.25974025974018</v>
+        <v>50.94339622641498</v>
       </c>
       <c r="L182" t="n">
         <v>23.44</v>
@@ -9627,7 +9649,7 @@
         <v>39.5</v>
       </c>
       <c r="K183" t="n">
-        <v>40.25974025974018</v>
+        <v>23.52941176470582</v>
       </c>
       <c r="L183" t="n">
         <v>23.71</v>
@@ -9678,7 +9700,7 @@
         <v>40.2</v>
       </c>
       <c r="K184" t="n">
-        <v>28.57142857142851</v>
+        <v>0</v>
       </c>
       <c r="L184" t="n">
         <v>23.72</v>
@@ -9729,7 +9751,7 @@
         <v>40.5</v>
       </c>
       <c r="K185" t="n">
-        <v>24.13793103448271</v>
+        <v>-39.39393939393928</v>
       </c>
       <c r="L185" t="n">
         <v>23.69</v>
@@ -9780,7 +9802,7 @@
         <v>40.5</v>
       </c>
       <c r="K186" t="n">
-        <v>25.58139534883718</v>
+        <v>-70.3703703703702</v>
       </c>
       <c r="L186" t="n">
         <v>23.56</v>
@@ -9831,7 +9853,7 @@
         <v>40.7</v>
       </c>
       <c r="K187" t="n">
-        <v>27.05882352941173</v>
+        <v>-61.90476190476168</v>
       </c>
       <c r="L187" t="n">
         <v>23.35</v>
@@ -9882,7 +9904,7 @@
         <v>41</v>
       </c>
       <c r="K188" t="n">
-        <v>22.7272727272727</v>
+        <v>-66.66666666666656</v>
       </c>
       <c r="L188" t="n">
         <v>23.19</v>
@@ -9933,7 +9955,7 @@
         <v>41.4</v>
       </c>
       <c r="K189" t="n">
-        <v>22.7272727272727</v>
+        <v>-69.23076923076921</v>
       </c>
       <c r="L189" t="n">
         <v>22.99</v>
@@ -9984,7 +10006,7 @@
         <v>41.4</v>
       </c>
       <c r="K190" t="n">
-        <v>20.9302325581395</v>
+        <v>-99.99999999999983</v>
       </c>
       <c r="L190" t="n">
         <v>22.81</v>
@@ -10035,7 +10057,7 @@
         <v>42</v>
       </c>
       <c r="K191" t="n">
-        <v>28.88888888888882</v>
+        <v>-52.00000000000002</v>
       </c>
       <c r="L191" t="n">
         <v>22.65</v>
@@ -10086,7 +10108,7 @@
         <v>42.5</v>
       </c>
       <c r="K192" t="n">
-        <v>31.18279569892468</v>
+        <v>-26.66666666666669</v>
       </c>
       <c r="L192" t="n">
         <v>22.57</v>
@@ -10137,7 +10159,7 @@
         <v>44.8</v>
       </c>
       <c r="K193" t="n">
-        <v>-3.773584905660361</v>
+        <v>-52.17391304347829</v>
       </c>
       <c r="L193" t="n">
         <v>22.26000000000001</v>
@@ -10188,7 +10210,7 @@
         <v>45.5</v>
       </c>
       <c r="K194" t="n">
-        <v>-17.02127659574463</v>
+        <v>-27.99999999999997</v>
       </c>
       <c r="L194" t="n">
         <v>22.09000000000001</v>
@@ -10239,7 +10261,7 @@
         <v>45.8</v>
       </c>
       <c r="K195" t="n">
-        <v>-20.83333333333331</v>
+        <v>-32.07547169811321</v>
       </c>
       <c r="L195" t="n">
         <v>21.92000000000001</v>
@@ -10290,7 +10312,7 @@
         <v>46.2</v>
       </c>
       <c r="K196" t="n">
-        <v>-28.88888888888888</v>
+        <v>-20.00000000000005</v>
       </c>
       <c r="L196" t="n">
         <v>21.79000000000001</v>
@@ -10341,7 +10363,7 @@
         <v>46.3</v>
       </c>
       <c r="K197" t="n">
-        <v>-38.82352941176468</v>
+        <v>-16.98113207547168</v>
       </c>
       <c r="L197" t="n">
         <v>21.67000000000001</v>
@@ -10392,7 +10414,7 @@
         <v>46.7</v>
       </c>
       <c r="K198" t="n">
-        <v>-35.80246913580245</v>
+        <v>-16.98113207547172</v>
       </c>
       <c r="L198" t="n">
         <v>21.54000000000001</v>
@@ -10443,7 +10465,7 @@
         <v>47</v>
       </c>
       <c r="K199" t="n">
-        <v>-38.09523809523806</v>
+        <v>-21.42857142857141</v>
       </c>
       <c r="L199" t="n">
         <v>21.42000000000001</v>
@@ -10494,7 +10516,7 @@
         <v>47.1</v>
       </c>
       <c r="K200" t="n">
-        <v>-37.34939759036144</v>
+        <v>-37.25490196078427</v>
       </c>
       <c r="L200" t="n">
         <v>21.29000000000001</v>
@@ -10545,7 +10567,7 @@
         <v>47.2</v>
       </c>
       <c r="K201" t="n">
-        <v>-42.49999999999994</v>
+        <v>-48.93617021276587</v>
       </c>
       <c r="L201" t="n">
         <v>21.11000000000001</v>
@@ -10596,7 +10618,7 @@
         <v>47.2</v>
       </c>
       <c r="K202" t="n">
-        <v>-40.25974025974022</v>
+        <v>0</v>
       </c>
       <c r="L202" t="n">
         <v>20.88000000000001</v>
@@ -10647,7 +10669,7 @@
         <v>47.60000000000001</v>
       </c>
       <c r="K203" t="n">
-        <v>-43.20987654320983</v>
+        <v>-52.38095238095224</v>
       </c>
       <c r="L203" t="n">
         <v>20.84000000000001</v>
@@ -10698,7 +10720,7 @@
         <v>47.70000000000001</v>
       </c>
       <c r="K204" t="n">
-        <v>-35.99999999999996</v>
+        <v>-36.84210526315761</v>
       </c>
       <c r="L204" t="n">
         <v>20.74000000000001</v>
@@ -10749,7 +10771,7 @@
         <v>47.70000000000001</v>
       </c>
       <c r="K205" t="n">
-        <v>-33.33333333333326</v>
+        <v>-73.33333333333249</v>
       </c>
       <c r="L205" t="n">
         <v>20.67000000000001</v>
@@ -10800,7 +10822,7 @@
         <v>47.80000000000001</v>
       </c>
       <c r="K206" t="n">
-        <v>-31.50684931506845</v>
+        <v>-59.99999999999957</v>
       </c>
       <c r="L206" t="n">
         <v>20.57000000000001</v>
@@ -10851,7 +10873,7 @@
         <v>47.90000000000001</v>
       </c>
       <c r="K207" t="n">
-        <v>-30.55555555555554</v>
+        <v>-49.99999999999971</v>
       </c>
       <c r="L207" t="n">
         <v>20.47000000000001</v>
@@ -10902,7 +10924,7 @@
         <v>47.90000000000001</v>
       </c>
       <c r="K208" t="n">
-        <v>-27.53623188405793</v>
+        <v>-33.3333333333332</v>
       </c>
       <c r="L208" t="n">
         <v>20.41000000000001</v>
@@ -10953,7 +10975,7 @@
         <v>48.10000000000001</v>
       </c>
       <c r="K209" t="n">
-        <v>-25.37313432835816</v>
+        <v>-39.99999999999957</v>
       </c>
       <c r="L209" t="n">
         <v>20.36000000000001</v>
@@ -11004,7 +11026,7 @@
         <v>48.80000000000001</v>
       </c>
       <c r="K210" t="n">
-        <v>-13.51351351351349</v>
+        <v>12.49999999999989</v>
       </c>
       <c r="L210" t="n">
         <v>20.39000000000001</v>
@@ -11055,7 +11077,7 @@
         <v>49.00000000000001</v>
       </c>
       <c r="K211" t="n">
-        <v>-25.71428571428562</v>
+        <v>0</v>
       </c>
       <c r="L211" t="n">
         <v>20.39000000000001</v>
@@ -11106,7 +11128,7 @@
         <v>49.20000000000002</v>
       </c>
       <c r="K212" t="n">
-        <v>-37.3134328358208</v>
+        <v>12.49999999999989</v>
       </c>
       <c r="L212" t="n">
         <v>20.37000000000001</v>
@@ -11157,7 +11179,7 @@
         <v>49.30000000000002</v>
       </c>
       <c r="K213" t="n">
-        <v>-2.222222222222243</v>
+        <v>12.49999999999989</v>
       </c>
       <c r="L213" t="n">
         <v>20.40000000000001</v>
@@ -11208,7 +11230,7 @@
         <v>50.00000000000001</v>
       </c>
       <c r="K214" t="n">
-        <v>-33.33333333333323</v>
+        <v>-21.73913043478257</v>
       </c>
       <c r="L214" t="n">
         <v>20.35000000000001</v>
@@ -11259,7 +11281,7 @@
         <v>50.40000000000001</v>
       </c>
       <c r="K215" t="n">
-        <v>-17.39130434782604</v>
+        <v>-7.692307692307661</v>
       </c>
       <c r="L215" t="n">
         <v>20.34000000000001</v>
@@ -11310,7 +11332,7 @@
         <v>50.60000000000001</v>
       </c>
       <c r="K216" t="n">
-        <v>-31.8181818181817</v>
+        <v>-11.11111111111112</v>
       </c>
       <c r="L216" t="n">
         <v>20.30000000000001</v>
@@ -11361,7 +11383,7 @@
         <v>51.10000000000001</v>
       </c>
       <c r="K217" t="n">
-        <v>-16.66666666666664</v>
+        <v>6.249999999999972</v>
       </c>
       <c r="L217" t="n">
         <v>20.32000000000001</v>
@@ -11412,7 +11434,7 @@
         <v>51.90000000000001</v>
       </c>
       <c r="K218" t="n">
-        <v>-23.07692307692305</v>
+        <v>-10.52631578947375</v>
       </c>
       <c r="L218" t="n">
         <v>20.26000000000001</v>
@@ -11463,7 +11485,7 @@
         <v>52.30000000000001</v>
       </c>
       <c r="K219" t="n">
-        <v>-9.433962264150923</v>
+        <v>-19.99999999999998</v>
       </c>
       <c r="L219" t="n">
         <v>20.26000000000001</v>
@@ -11514,7 +11536,7 @@
         <v>52.90000000000001</v>
       </c>
       <c r="K220" t="n">
-        <v>-17.24137931034479</v>
+        <v>-28.20512820512825</v>
       </c>
       <c r="L220" t="n">
         <v>20.13</v>
@@ -11565,7 +11587,7 @@
         <v>53.20000000000002</v>
       </c>
       <c r="K221" t="n">
-        <v>-13.33333333333331</v>
+        <v>-14.99999999999995</v>
       </c>
       <c r="L221" t="n">
         <v>20.05</v>
@@ -11616,7 +11638,7 @@
         <v>53.70000000000002</v>
       </c>
       <c r="K222" t="n">
-        <v>-4.615384615384617</v>
+        <v>-4.545454545454531</v>
       </c>
       <c r="L222" t="n">
         <v>20.04000000000001</v>
@@ -11667,7 +11689,7 @@
         <v>54.30000000000002</v>
       </c>
       <c r="K223" t="n">
-        <v>-7.462686567164168</v>
+        <v>-2.325581395348868</v>
       </c>
       <c r="L223" t="n">
         <v>19.96</v>
@@ -11718,7 +11740,7 @@
         <v>54.50000000000001</v>
       </c>
       <c r="K224" t="n">
-        <v>-5.882352941176499</v>
+        <v>-7.317073170731722</v>
       </c>
       <c r="L224" t="n">
         <v>19.97000000000001</v>
@@ -11769,7 +11791,7 @@
         <v>54.60000000000002</v>
       </c>
       <c r="K225" t="n">
-        <v>-4.347826086956529</v>
+        <v>0</v>
       </c>
       <c r="L225" t="n">
         <v>19.95000000000001</v>
@@ -11820,7 +11842,7 @@
         <v>54.60000000000002</v>
       </c>
       <c r="K226" t="n">
-        <v>-5.882352941176446</v>
+        <v>-14.28571428571426</v>
       </c>
       <c r="L226" t="n">
         <v>19.95000000000001</v>
@@ -11871,7 +11893,7 @@
         <v>54.60000000000002</v>
       </c>
       <c r="K227" t="n">
-        <v>-4.477611940298512</v>
+        <v>11.1111111111111</v>
       </c>
       <c r="L227" t="n">
         <v>19.90000000000001</v>
@@ -11922,7 +11944,7 @@
         <v>55.10000000000002</v>
       </c>
       <c r="K228" t="n">
-        <v>2.777777777777764</v>
+        <v>14.28571428571421</v>
       </c>
       <c r="L228" t="n">
         <v>19.98000000000001</v>
@@ -11973,7 +11995,7 @@
         <v>55.70000000000002</v>
       </c>
       <c r="K229" t="n">
-        <v>-2.631578947368455</v>
+        <v>14.28571428571421</v>
       </c>
       <c r="L229" t="n">
         <v>19.96000000000001</v>
@@ -12024,7 +12046,7 @@
         <v>55.80000000000002</v>
       </c>
       <c r="K230" t="n">
-        <v>-11.42857142857143</v>
+        <v>7.692307692307661</v>
       </c>
       <c r="L230" t="n">
         <v>20.01000000000001</v>
@@ -12075,7 +12097,7 @@
         <v>56.00000000000001</v>
       </c>
       <c r="K231" t="n">
-        <v>-11.42857142857144</v>
+        <v>-21.73913043478263</v>
       </c>
       <c r="L231" t="n">
         <v>20.01000000000001</v>
@@ -12126,7 +12148,7 @@
         <v>56.00000000000001</v>
       </c>
       <c r="K232" t="n">
-        <v>-8.823529411764678</v>
+        <v>5.882352941176569</v>
       </c>
       <c r="L232" t="n">
         <v>19.96000000000001</v>
@@ -12177,7 +12199,7 @@
         <v>56.20000000000002</v>
       </c>
       <c r="K233" t="n">
-        <v>-7.246376811594205</v>
+        <v>5.882352941176544</v>
       </c>
       <c r="L233" t="n">
         <v>19.99000000000001</v>
@@ -12228,7 +12250,7 @@
         <v>56.20000000000002</v>
       </c>
       <c r="K234" t="n">
-        <v>3.22580645161289</v>
+        <v>0</v>
       </c>
       <c r="L234" t="n">
         <v>20.00000000000001</v>
@@ -12279,7 +12301,7 @@
         <v>56.20000000000002</v>
       </c>
       <c r="K235" t="n">
-        <v>-3.448275862068951</v>
+        <v>0</v>
       </c>
       <c r="L235" t="n">
         <v>20.00000000000001</v>
@@ -12381,7 +12403,7 @@
         <v>56.50000000000001</v>
       </c>
       <c r="K237" t="n">
-        <v>-14.81481481481481</v>
+        <v>-57.14285714285725</v>
       </c>
       <c r="L237" t="n">
         <v>19.97000000000001</v>
@@ -12432,7 +12454,7 @@
         <v>56.90000000000002</v>
       </c>
       <c r="K238" t="n">
-        <v>8.00000000000002</v>
+        <v>16.66666666666686</v>
       </c>
       <c r="L238" t="n">
         <v>19.93000000000001</v>
@@ -12483,7 +12505,7 @@
         <v>57.10000000000002</v>
       </c>
       <c r="K239" t="n">
-        <v>-4.166666666666716</v>
+        <v>-7.692307692307776</v>
       </c>
       <c r="L239" t="n">
         <v>19.93000000000001</v>
@@ -12534,7 +12556,7 @@
         <v>57.30000000000003</v>
       </c>
       <c r="K240" t="n">
-        <v>4.545454545454517</v>
+        <v>-7.692307692307734</v>
       </c>
       <c r="L240" t="n">
         <v>19.90000000000001</v>
@@ -12585,7 +12607,7 @@
         <v>57.30000000000003</v>
       </c>
       <c r="K241" t="n">
-        <v>-2.439024390243932</v>
+        <v>-7.692307692307734</v>
       </c>
       <c r="L241" t="n">
         <v>19.89</v>
@@ -12636,7 +12658,7 @@
         <v>57.90000000000003</v>
       </c>
       <c r="K242" t="n">
-        <v>0</v>
+        <v>17.64705882352935</v>
       </c>
       <c r="L242" t="n">
         <v>19.94</v>
@@ -12687,7 +12709,7 @@
         <v>58.20000000000003</v>
       </c>
       <c r="K243" t="n">
-        <v>7.692307692307685</v>
+        <v>0</v>
       </c>
       <c r="L243" t="n">
         <v>19.94</v>
@@ -12738,7 +12760,7 @@
         <v>58.40000000000003</v>
       </c>
       <c r="K244" t="n">
-        <v>-2.564102564102496</v>
+        <v>-9.090909090908989</v>
       </c>
       <c r="L244" t="n">
         <v>19.92000000000001</v>
@@ -12789,7 +12811,7 @@
         <v>58.70000000000003</v>
       </c>
       <c r="K245" t="n">
-        <v>2.439024390243928</v>
+        <v>4.000000000000034</v>
       </c>
       <c r="L245" t="n">
         <v>19.93</v>
@@ -12840,7 +12862,7 @@
         <v>58.90000000000003</v>
       </c>
       <c r="K246" t="n">
-        <v>-2.32558139534886</v>
+        <v>8.333333333333234</v>
       </c>
       <c r="L246" t="n">
         <v>19.92000000000001</v>
@@ -12891,7 +12913,7 @@
         <v>58.90000000000003</v>
       </c>
       <c r="K247" t="n">
-        <v>-2.32558139534886</v>
+        <v>-10.00000000000007</v>
       </c>
       <c r="L247" t="n">
         <v>19.94</v>
@@ -12942,7 +12964,7 @@
         <v>58.90000000000003</v>
       </c>
       <c r="K248" t="n">
-        <v>-15.78947368421049</v>
+        <v>0</v>
       </c>
       <c r="L248" t="n">
         <v>19.92000000000001</v>
@@ -12993,7 +13015,7 @@
         <v>58.90000000000003</v>
       </c>
       <c r="K249" t="n">
-        <v>0</v>
+        <v>12.49999999999989</v>
       </c>
       <c r="L249" t="n">
         <v>19.92000000000001</v>
@@ -13044,7 +13066,7 @@
         <v>59.00000000000004</v>
       </c>
       <c r="K250" t="n">
-        <v>0</v>
+        <v>17.64705882352935</v>
       </c>
       <c r="L250" t="n">
         <v>19.95000000000001</v>
@@ -13095,7 +13117,7 @@
         <v>59.30000000000004</v>
       </c>
       <c r="K251" t="n">
-        <v>-3.03030303030305</v>
+        <v>-42.85714285714256</v>
       </c>
       <c r="L251" t="n">
         <v>19.95000000000001</v>
@@ -13146,7 +13168,7 @@
         <v>59.40000000000004</v>
       </c>
       <c r="K252" t="n">
-        <v>0</v>
+        <v>-16.66666666666647</v>
       </c>
       <c r="L252" t="n">
         <v>19.90000000000001</v>
@@ -13197,7 +13219,7 @@
         <v>59.50000000000004</v>
       </c>
       <c r="K253" t="n">
-        <v>-3.03030303030305</v>
+        <v>9.090909090908825</v>
       </c>
       <c r="L253" t="n">
         <v>19.89000000000001</v>
@@ -13248,7 +13270,7 @@
         <v>59.50000000000004</v>
       </c>
       <c r="K254" t="n">
-        <v>-3.03030303030305</v>
+        <v>-25</v>
       </c>
       <c r="L254" t="n">
         <v>19.90000000000001</v>
@@ -13299,7 +13321,7 @@
         <v>59.60000000000004</v>
       </c>
       <c r="K255" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L255" t="n">
         <v>19.89000000000001</v>
@@ -13350,7 +13372,7 @@
         <v>59.60000000000004</v>
       </c>
       <c r="K256" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L256" t="n">
         <v>19.90000000000001</v>
@@ -13401,7 +13423,7 @@
         <v>59.60000000000004</v>
       </c>
       <c r="K257" t="n">
-        <v>9.677419354838641</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L257" t="n">
         <v>19.91000000000001</v>
@@ -13452,7 +13474,7 @@
         <v>59.70000000000005</v>
       </c>
       <c r="K258" t="n">
-        <v>-7.142857142857179</v>
+        <v>0</v>
       </c>
       <c r="L258" t="n">
         <v>19.91000000000001</v>
@@ -13503,7 +13525,7 @@
         <v>59.80000000000004</v>
       </c>
       <c r="K259" t="n">
-        <v>-3.703703703703602</v>
+        <v>-24.99999999999978</v>
       </c>
       <c r="L259" t="n">
         <v>19.90000000000001</v>
@@ -13554,7 +13576,7 @@
         <v>60.00000000000004</v>
       </c>
       <c r="K260" t="n">
-        <v>11.11111111111107</v>
+        <v>42.85714285714278</v>
       </c>
       <c r="L260" t="n">
         <v>19.90000000000001</v>
@@ -13605,7 +13627,7 @@
         <v>60.20000000000005</v>
       </c>
       <c r="K261" t="n">
-        <v>3.448275862068991</v>
+        <v>0</v>
       </c>
       <c r="L261" t="n">
         <v>19.91000000000001</v>
@@ -13656,7 +13678,7 @@
         <v>60.20000000000005</v>
       </c>
       <c r="K262" t="n">
-        <v>-21.73913043478243</v>
+        <v>-14.28571428571392</v>
       </c>
       <c r="L262" t="n">
         <v>19.91000000000001</v>
@@ -13707,7 +13729,7 @@
         <v>60.20000000000005</v>
       </c>
       <c r="K263" t="n">
-        <v>-9.999999999999893</v>
+        <v>-14.28571428571392</v>
       </c>
       <c r="L263" t="n">
         <v>19.90000000000001</v>
@@ -13758,7 +13780,7 @@
         <v>60.20000000000005</v>
       </c>
       <c r="K264" t="n">
-        <v>0</v>
+        <v>-33.33333333333314</v>
       </c>
       <c r="L264" t="n">
         <v>19.89000000000001</v>
@@ -13809,7 +13831,7 @@
         <v>60.30000000000005</v>
       </c>
       <c r="K265" t="n">
-        <v>-24.99999999999989</v>
+        <v>-42.85714285714278</v>
       </c>
       <c r="L265" t="n">
         <v>19.86000000000001</v>
@@ -13860,7 +13882,7 @@
         <v>60.30000000000005</v>
       </c>
       <c r="K266" t="n">
-        <v>-14.28571428571411</v>
+        <v>-42.85714285714278</v>
       </c>
       <c r="L266" t="n">
         <v>19.83000000000001</v>
@@ -13911,7 +13933,7 @@
         <v>60.60000000000005</v>
       </c>
       <c r="K267" t="n">
-        <v>5.882352941176496</v>
+        <v>11.1111111111112</v>
       </c>
       <c r="L267" t="n">
         <v>19.83000000000001</v>
@@ -13962,7 +13984,7 @@
         <v>60.70000000000005</v>
       </c>
       <c r="K268" t="n">
-        <v>0</v>
+        <v>11.11111111111072</v>
       </c>
       <c r="L268" t="n">
         <v>19.83000000000001</v>
@@ -14013,7 +14035,7 @@
         <v>60.80000000000005</v>
       </c>
       <c r="K269" t="n">
-        <v>-5.263157894736675</v>
+        <v>-24.99999999999956</v>
       </c>
       <c r="L269" t="n">
         <v>19.83000000000001</v>
@@ -14064,7 +14086,7 @@
         <v>60.90000000000005</v>
       </c>
       <c r="K270" t="n">
-        <v>-5.263157894736882</v>
+        <v>14.28571428571392</v>
       </c>
       <c r="L270" t="n">
         <v>19.82000000000001</v>
@@ -14115,7 +14137,7 @@
         <v>60.90000000000005</v>
       </c>
       <c r="K271" t="n">
-        <v>12.49999999999989</v>
+        <v>14.28571428571392</v>
       </c>
       <c r="L271" t="n">
         <v>19.83000000000001</v>
@@ -14166,7 +14188,7 @@
         <v>61.10000000000005</v>
       </c>
       <c r="K272" t="n">
-        <v>-5.88235294117652</v>
+        <v>-11.1111111111112</v>
       </c>
       <c r="L272" t="n">
         <v>19.82000000000001</v>
@@ -14217,7 +14239,7 @@
         <v>61.10000000000005</v>
       </c>
       <c r="K273" t="n">
-        <v>-12.49999999999989</v>
+        <v>-11.1111111111112</v>
       </c>
       <c r="L273" t="n">
         <v>19.81000000000001</v>
@@ -14268,7 +14290,7 @@
         <v>61.10000000000005</v>
       </c>
       <c r="K274" t="n">
-        <v>-12.49999999999989</v>
+        <v>0</v>
       </c>
       <c r="L274" t="n">
         <v>19.8</v>
@@ -14319,7 +14341,7 @@
         <v>61.30000000000005</v>
       </c>
       <c r="K275" t="n">
-        <v>-29.41176470588218</v>
+        <v>-19.99999999999979</v>
       </c>
       <c r="L275" t="n">
         <v>19.78</v>
@@ -14370,7 +14392,7 @@
         <v>61.40000000000006</v>
       </c>
       <c r="K276" t="n">
-        <v>-22.222222222222</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L276" t="n">
         <v>19.77</v>
@@ -14421,7 +14443,7 @@
         <v>61.60000000000005</v>
       </c>
       <c r="K277" t="n">
-        <v>-9.999999999999929</v>
+        <v>-11.11111111111089</v>
       </c>
       <c r="L277" t="n">
         <v>19.75000000000001</v>
@@ -14472,7 +14494,7 @@
         <v>61.80000000000005</v>
       </c>
       <c r="K278" t="n">
-        <v>4.76190476190481</v>
+        <v>19.99999999999993</v>
       </c>
       <c r="L278" t="n">
         <v>19.76000000000001</v>
@@ -14523,7 +14545,7 @@
         <v>61.90000000000006</v>
       </c>
       <c r="K279" t="n">
-        <v>4.761904761904625</v>
+        <v>0</v>
       </c>
       <c r="L279" t="n">
         <v>19.77</v>
@@ -14574,7 +14596,7 @@
         <v>62.10000000000006</v>
       </c>
       <c r="K280" t="n">
-        <v>4.761904761904794</v>
+        <v>16.66666666666677</v>
       </c>
       <c r="L280" t="n">
         <v>19.79</v>
@@ -14625,7 +14647,7 @@
         <v>62.40000000000006</v>
       </c>
       <c r="K281" t="n">
-        <v>0</v>
+        <v>7.692307692307734</v>
       </c>
       <c r="L281" t="n">
         <v>19.78</v>
@@ -14676,7 +14698,7 @@
         <v>62.60000000000007</v>
       </c>
       <c r="K282" t="n">
-        <v>8.333333333333234</v>
+        <v>19.99999999999986</v>
       </c>
       <c r="L282" t="n">
         <v>19.81000000000001</v>
@@ -14727,7 +14749,7 @@
         <v>62.70000000000007</v>
       </c>
       <c r="K283" t="n">
-        <v>11.99999999999993</v>
+        <v>24.99999999999989</v>
       </c>
       <c r="L283" t="n">
         <v>19.85</v>
@@ -14778,7 +14800,7 @@
         <v>63.10000000000007</v>
       </c>
       <c r="K284" t="n">
-        <v>24.13793103448257</v>
+        <v>55.5555555555552</v>
       </c>
       <c r="L284" t="n">
         <v>19.93000000000001</v>
@@ -14829,7 +14851,7 @@
         <v>64.60000000000007</v>
       </c>
       <c r="K285" t="n">
-        <v>53.48837209302304</v>
+        <v>74.99999999999972</v>
       </c>
       <c r="L285" t="n">
         <v>20.18000000000001</v>
@@ -14880,7 +14902,7 @@
         <v>65.70000000000007</v>
       </c>
       <c r="K286" t="n">
-        <v>22.2222222222221</v>
+        <v>26.82926829268273</v>
       </c>
       <c r="L286" t="n">
         <v>20.31000000000001</v>
@@ -14931,7 +14953,7 @@
         <v>65.90000000000008</v>
       </c>
       <c r="K287" t="n">
-        <v>20.754716981132</v>
+        <v>26.82926829268281</v>
       </c>
       <c r="L287" t="n">
         <v>20.44</v>
@@ -14982,7 +15004,7 @@
         <v>66.10000000000008</v>
       </c>
       <c r="K288" t="n">
-        <v>18.51851851851843</v>
+        <v>23.80952380952367</v>
       </c>
       <c r="L288" t="n">
         <v>20.53000000000001</v>
@@ -15033,7 +15055,7 @@
         <v>67.40000000000008</v>
       </c>
       <c r="K289" t="n">
-        <v>36.36363636363622</v>
+        <v>39.62264150943378</v>
       </c>
       <c r="L289" t="n">
         <v>20.76000000000001</v>
@@ -15084,7 +15106,7 @@
         <v>68.00000000000009</v>
       </c>
       <c r="K290" t="n">
-        <v>40.84507042253503</v>
+        <v>53.57142857142836</v>
       </c>
       <c r="L290" t="n">
         <v>21.03000000000001</v>
@@ -15135,7 +15157,7 @@
         <v>69.40000000000009</v>
       </c>
       <c r="K291" t="n">
-        <v>17.64705882352932</v>
+        <v>20.58823529411755</v>
       </c>
       <c r="L291" t="n">
         <v>21.19</v>
@@ -15186,7 +15208,7 @@
         <v>70.60000000000009</v>
       </c>
       <c r="K292" t="n">
-        <v>30.52631578947357</v>
+        <v>31.64556962025306</v>
       </c>
       <c r="L292" t="n">
         <v>21.45000000000001</v>
@@ -15237,7 +15259,7 @@
         <v>71.8000000000001</v>
       </c>
       <c r="K293" t="n">
-        <v>15.88785046728965</v>
+        <v>10.34482758620684</v>
       </c>
       <c r="L293" t="n">
         <v>21.58000000000001</v>
@@ -15288,7 +15310,7 @@
         <v>72.0000000000001</v>
       </c>
       <c r="K294" t="n">
-        <v>17.4311926605504</v>
+        <v>-5.405405405405361</v>
       </c>
       <c r="L294" t="n">
         <v>21.69</v>
@@ -15339,7 +15361,7 @@
         <v>73.60000000000009</v>
       </c>
       <c r="K295" t="n">
-        <v>30.08130081300803</v>
+        <v>29.11392405063285</v>
       </c>
       <c r="L295" t="n">
         <v>21.81000000000001</v>
@@ -15390,7 +15412,7 @@
         <v>74.70000000000009</v>
       </c>
       <c r="K296" t="n">
-        <v>18.79699248120296</v>
+        <v>11.36363636363635</v>
       </c>
       <c r="L296" t="n">
         <v>21.93</v>
@@ -15441,7 +15463,7 @@
         <v>74.90000000000009</v>
       </c>
       <c r="K297" t="n">
-        <v>18.79699248120295</v>
+        <v>15.90909090909091</v>
       </c>
       <c r="L297" t="n">
         <v>22.05</v>
@@ -15492,7 +15514,7 @@
         <v>75.8000000000001</v>
       </c>
       <c r="K298" t="n">
-        <v>9.999999999999959</v>
+        <v>-9.52380952380951</v>
       </c>
       <c r="L298" t="n">
         <v>22.1</v>
@@ -15543,7 +15565,7 @@
         <v>76.60000000000009</v>
       </c>
       <c r="K299" t="n">
-        <v>15.64625850340133</v>
+        <v>-6.976744186046521</v>
       </c>
       <c r="L299" t="n">
         <v>22.1</v>
@@ -15594,7 +15616,7 @@
         <v>76.70000000000009</v>
       </c>
       <c r="K300" t="n">
-        <v>13.69863013698627</v>
+        <v>9.589041095890453</v>
       </c>
       <c r="L300" t="n">
         <v>22.03</v>
@@ -15645,7 +15667,7 @@
         <v>77.60000000000008</v>
       </c>
       <c r="K301" t="n">
-        <v>21.05263157894734</v>
+        <v>5.714285714285706</v>
       </c>
       <c r="L301" t="n">
         <v>22.19</v>
@@ -15696,7 +15718,7 @@
         <v>77.90000000000008</v>
       </c>
       <c r="K302" t="n">
-        <v>17.64705882352939</v>
+        <v>21.31147540983615</v>
       </c>
       <c r="L302" t="n">
         <v>22.2</v>
@@ -15747,7 +15769,7 @@
         <v>77.90000000000008</v>
       </c>
       <c r="K303" t="n">
-        <v>17.10526315789471</v>
+        <v>18.64406779661021</v>
       </c>
       <c r="L303" t="n">
         <v>22.33</v>
@@ -15798,7 +15820,7 @@
         <v>78.30000000000008</v>
       </c>
       <c r="K304" t="n">
-        <v>17.10526315789473</v>
+        <v>-2.127659574468045</v>
       </c>
       <c r="L304" t="n">
         <v>22.48</v>
@@ -15849,7 +15871,7 @@
         <v>78.40000000000009</v>
       </c>
       <c r="K305" t="n">
-        <v>7.246376811594189</v>
+        <v>24.32432432432427</v>
       </c>
       <c r="L305" t="n">
         <v>22.46</v>
@@ -15900,7 +15922,7 @@
         <v>78.50000000000009</v>
       </c>
       <c r="K306" t="n">
-        <v>17.18750000000001</v>
+        <v>22.22222222222228</v>
       </c>
       <c r="L306" t="n">
         <v>22.56</v>
@@ -15951,7 +15973,7 @@
         <v>79.10000000000008</v>
       </c>
       <c r="K307" t="n">
-        <v>10.60606060606059</v>
+        <v>33.33333333333355</v>
       </c>
       <c r="L307" t="n">
         <v>22.58</v>
@@ -16002,7 +16024,7 @@
         <v>79.40000000000008</v>
       </c>
       <c r="K308" t="n">
-        <v>9.774436090225572</v>
+        <v>0</v>
       </c>
       <c r="L308" t="n">
         <v>22.66</v>
@@ -16053,7 +16075,7 @@
         <v>79.70000000000007</v>
       </c>
       <c r="K309" t="n">
-        <v>2.439024390243909</v>
+        <v>13.33333333333335</v>
       </c>
       <c r="L309" t="n">
         <v>22.69</v>
@@ -16104,7 +16126,7 @@
         <v>79.80000000000007</v>
       </c>
       <c r="K310" t="n">
-        <v>-1.694915254237285</v>
+        <v>-18.18181818181821</v>
       </c>
       <c r="L310" t="n">
         <v>22.74</v>
@@ -16155,7 +16177,7 @@
         <v>80.30000000000007</v>
       </c>
       <c r="K311" t="n">
-        <v>6.422018348623892</v>
+        <v>-25</v>
       </c>
       <c r="L311" t="n">
         <v>22.65</v>
@@ -16206,7 +16228,7 @@
         <v>80.40000000000006</v>
       </c>
       <c r="K312" t="n">
-        <v>-6.12244897959187</v>
+        <v>-28.00000000000013</v>
       </c>
       <c r="L312" t="n">
         <v>22.58</v>
@@ -16257,7 +16279,7 @@
         <v>80.80000000000007</v>
       </c>
       <c r="K313" t="n">
-        <v>11.11111111111115</v>
+        <v>-28.00000000000027</v>
       </c>
       <c r="L313" t="n">
         <v>22.55</v>
@@ -16308,7 +16330,7 @@
         <v>81.40000000000006</v>
       </c>
       <c r="K314" t="n">
-        <v>2.127659574468086</v>
+        <v>-40.00000000000036</v>
       </c>
       <c r="L314" t="n">
         <v>22.42000000000001</v>
@@ -16359,7 +16381,7 @@
         <v>81.50000000000006</v>
       </c>
       <c r="K315" t="n">
-        <v>-16.45569620253173</v>
+        <v>-40.00000000000048</v>
       </c>
       <c r="L315" t="n">
         <v>22.31000000000001</v>
@@ -16410,7 +16432,7 @@
         <v>82.00000000000006</v>
       </c>
       <c r="K316" t="n">
-        <v>4.10958904109587</v>
+        <v>-3.448275862069042</v>
       </c>
       <c r="L316" t="n">
         <v>22.24000000000001</v>
@@ -16461,7 +16483,7 @@
         <v>82.10000000000005</v>
       </c>
       <c r="K317" t="n">
-        <v>2.777777777777783</v>
+        <v>11.11111111111124</v>
       </c>
       <c r="L317" t="n">
         <v>22.24000000000001</v>
@@ -16512,7 +16534,7 @@
         <v>82.40000000000005</v>
       </c>
       <c r="K318" t="n">
-        <v>21.2121212121214</v>
+        <v>11.11111111111124</v>
       </c>
       <c r="L318" t="n">
         <v>22.30000000000001</v>
@@ -16563,7 +16585,7 @@
         <v>83.00000000000004</v>
       </c>
       <c r="K319" t="n">
-        <v>18.75000000000014</v>
+        <v>25.00000000000011</v>
       </c>
       <c r="L319" t="n">
         <v>22.39000000000001</v>
@@ -16614,7 +16636,7 @@
         <v>83.40000000000003</v>
       </c>
       <c r="K320" t="n">
-        <v>13.43283582089561</v>
+        <v>29.0322580645164</v>
       </c>
       <c r="L320" t="n">
         <v>22.43000000000001</v>
@@ -16665,7 +16687,7 @@
         <v>83.50000000000003</v>
       </c>
       <c r="K321" t="n">
-        <v>-1.694915254237327</v>
+        <v>29.0322580645164</v>
       </c>
       <c r="L321" t="n">
         <v>22.51000000000001</v>
@@ -16716,7 +16738,7 @@
         <v>83.50000000000003</v>
       </c>
       <c r="K322" t="n">
-        <v>3.571428571428589</v>
+        <v>18.51851851851879</v>
       </c>
       <c r="L322" t="n">
         <v>22.60000000000001</v>
@@ -16767,7 +16789,7 @@
         <v>84.00000000000003</v>
       </c>
       <c r="K323" t="n">
-        <v>-4.918032786885297</v>
+        <v>23.0769230769233</v>
       </c>
       <c r="L323" t="n">
         <v>22.60000000000001</v>
@@ -16818,7 +16840,7 @@
         <v>84.00000000000003</v>
       </c>
       <c r="K324" t="n">
-        <v>-12.28070175438613</v>
+        <v>20.00000000000023</v>
       </c>
       <c r="L324" t="n">
         <v>22.66000000000001</v>
@@ -16869,7 +16891,7 @@
         <v>84.10000000000002</v>
       </c>
       <c r="K325" t="n">
-        <v>-8.771929824561509</v>
+        <v>4.761904761904907</v>
       </c>
       <c r="L325" t="n">
         <v>22.72000000000001</v>
@@ -16920,7 +16942,7 @@
         <v>84.40000000000002</v>
       </c>
       <c r="K326" t="n">
-        <v>-15.2542372881358</v>
+        <v>-13.04347826086977</v>
       </c>
       <c r="L326" t="n">
         <v>22.70000000000001</v>
@@ -16971,7 +16993,7 @@
         <v>84.40000000000002</v>
       </c>
       <c r="K327" t="n">
-        <v>-5.660377358490643</v>
+        <v>-30.0000000000005</v>
       </c>
       <c r="L327" t="n">
         <v>22.67000000000001</v>
@@ -17022,7 +17044,7 @@
         <v>84.70000000000002</v>
       </c>
       <c r="K328" t="n">
-        <v>5.660377358490643</v>
+        <v>-52.94117647058895</v>
       </c>
       <c r="L328" t="n">
         <v>22.64000000000001</v>
@@ -17073,7 +17095,7 @@
         <v>84.70000000000002</v>
       </c>
       <c r="K329" t="n">
-        <v>0</v>
+        <v>-38.46153846153897</v>
       </c>
       <c r="L329" t="n">
         <v>22.55</v>
@@ -17124,7 +17146,7 @@
         <v>84.80000000000001</v>
       </c>
       <c r="K330" t="n">
-        <v>0</v>
+        <v>-23.07692307692316</v>
       </c>
       <c r="L330" t="n">
         <v>22.51000000000001</v>
@@ -17175,7 +17197,7 @@
         <v>84.80000000000001</v>
       </c>
       <c r="K331" t="n">
-        <v>11.11111111111125</v>
+        <v>-23.07692307692316</v>
       </c>
       <c r="L331" t="n">
         <v>22.48</v>
@@ -17226,7 +17248,7 @@
         <v>84.90000000000001</v>
       </c>
       <c r="K332" t="n">
-        <v>15.55555555555574</v>
+        <v>33.33333333333425</v>
       </c>
       <c r="L332" t="n">
         <v>22.46</v>
@@ -17277,7 +17299,7 @@
         <v>85</v>
       </c>
       <c r="K333" t="n">
-        <v>4.761904761904907</v>
+        <v>20.00000000000085</v>
       </c>
       <c r="L333" t="n">
         <v>22.48</v>
@@ -17328,7 +17350,7 @@
         <v>85</v>
       </c>
       <c r="K334" t="n">
-        <v>22.22222222222263</v>
+        <v>11.11111111111155</v>
       </c>
       <c r="L334" t="n">
         <v>22.5</v>
@@ -17379,7 +17401,7 @@
         <v>85.2</v>
       </c>
       <c r="K335" t="n">
-        <v>13.51351351351371</v>
+        <v>25.00000000000044</v>
       </c>
       <c r="L335" t="n">
         <v>22.49</v>
@@ -17430,7 +17452,7 @@
         <v>85.5</v>
       </c>
       <c r="K336" t="n">
-        <v>8.571428571428731</v>
+        <v>45.45454545454628</v>
       </c>
       <c r="L336" t="n">
         <v>22.54</v>
@@ -17481,7 +17503,7 @@
         <v>85.90000000000001</v>
       </c>
       <c r="K337" t="n">
-        <v>-5.263157894736886</v>
+        <v>-16.66666666666677</v>
       </c>
       <c r="L337" t="n">
         <v>22.55</v>
@@ -17532,7 +17554,7 @@
         <v>85.90000000000001</v>
       </c>
       <c r="K338" t="n">
-        <v>-14.28571428571446</v>
+        <v>-16.66666666666677</v>
       </c>
       <c r="L338" t="n">
         <v>22.53</v>
@@ -17583,7 +17605,7 @@
         <v>86</v>
       </c>
       <c r="K339" t="n">
-        <v>-33.33333333333381</v>
+        <v>-16.66666666666706</v>
       </c>
       <c r="L339" t="n">
         <v>22.52</v>
@@ -17634,7 +17656,7 @@
         <v>86</v>
       </c>
       <c r="K340" t="n">
-        <v>-23.07692307692343</v>
+        <v>-16.66666666666706</v>
       </c>
       <c r="L340" t="n">
         <v>22.50000000000001</v>
@@ -17685,7 +17707,7 @@
         <v>86.09999999999999</v>
       </c>
       <c r="K341" t="n">
-        <v>-15.38461538461553</v>
+        <v>-16.66666666666677</v>
       </c>
       <c r="L341" t="n">
         <v>22.49000000000001</v>
@@ -17736,7 +17758,7 @@
         <v>86.19999999999999</v>
       </c>
       <c r="K342" t="n">
-        <v>-18.51851851851879</v>
+        <v>-16.66666666666706</v>
       </c>
       <c r="L342" t="n">
         <v>22.46000000000001</v>
@@ -17787,7 +17809,7 @@
         <v>86.39999999999999</v>
       </c>
       <c r="K343" t="n">
-        <v>-8.333333333333432</v>
+        <v>-28.5714285714289</v>
       </c>
       <c r="L343" t="n">
         <v>22.42000000000001</v>
@@ -17889,7 +17911,7 @@
         <v>86.69999999999999</v>
       </c>
       <c r="K345" t="n">
-        <v>-7.692307692307766</v>
+        <v>-33.33333333333353</v>
       </c>
       <c r="L345" t="n">
         <v>22.39000000000001</v>
@@ -17940,7 +17962,7 @@
         <v>86.69999999999999</v>
       </c>
       <c r="K346" t="n">
-        <v>4.347826086956642</v>
+        <v>0</v>
       </c>
       <c r="L346" t="n">
         <v>22.35000000000001</v>
@@ -17991,7 +18013,7 @@
         <v>86.69999999999999</v>
       </c>
       <c r="K347" t="n">
-        <v>4.347826086956642</v>
+        <v>0</v>
       </c>
       <c r="L347" t="n">
         <v>22.35000000000001</v>
@@ -18042,7 +18064,7 @@
         <v>87.09999999999999</v>
       </c>
       <c r="K348" t="n">
-        <v>8.333333333333384</v>
+        <v>27.27272727272748</v>
       </c>
       <c r="L348" t="n">
         <v>22.39000000000001</v>
@@ -18093,7 +18115,7 @@
         <v>87.09999999999999</v>
       </c>
       <c r="K349" t="n">
-        <v>8.333333333333384</v>
+        <v>27.27272727272748</v>
       </c>
       <c r="L349" t="n">
         <v>22.42000000000001</v>
@@ -18144,7 +18166,7 @@
         <v>87.3</v>
       </c>
       <c r="K350" t="n">
-        <v>-4.00000000000008</v>
+        <v>0</v>
       </c>
       <c r="L350" t="n">
         <v>22.43000000000001</v>
@@ -18195,7 +18217,7 @@
         <v>87.5</v>
       </c>
       <c r="K351" t="n">
-        <v>-11.11111111111118</v>
+        <v>-7.692307692307461</v>
       </c>
       <c r="L351" t="n">
         <v>22.41000000000001</v>
@@ -18246,7 +18268,7 @@
         <v>87.59999999999999</v>
       </c>
       <c r="K352" t="n">
-        <v>-11.11111111111118</v>
+        <v>16.66666666666657</v>
       </c>
       <c r="L352" t="n">
         <v>22.41000000000001</v>
@@ -18297,7 +18319,7 @@
         <v>87.8</v>
       </c>
       <c r="K353" t="n">
-        <v>-14.28571428571438</v>
+        <v>-16.66666666666657</v>
       </c>
       <c r="L353" t="n">
         <v>22.41000000000001</v>
@@ -18348,7 +18370,7 @@
         <v>88</v>
       </c>
       <c r="K354" t="n">
-        <v>-20.00000000000005</v>
+        <v>-23.07692307692293</v>
       </c>
       <c r="L354" t="n">
         <v>22.37000000000001</v>
@@ -18399,7 +18421,7 @@
         <v>88.09999999999999</v>
       </c>
       <c r="K355" t="n">
-        <v>-17.24137931034488</v>
+        <v>-28.57142857142861</v>
       </c>
       <c r="L355" t="n">
         <v>22.33000000000001</v>
@@ -18450,7 +18472,7 @@
         <v>88.09999999999999</v>
       </c>
       <c r="K356" t="n">
-        <v>-30.76923076923087</v>
+        <v>-28.57142857142861</v>
       </c>
       <c r="L356" t="n">
         <v>22.29000000000001</v>
@@ -18501,7 +18523,7 @@
         <v>88.19999999999999</v>
       </c>
       <c r="K357" t="n">
-        <v>-13.04347826086969</v>
+        <v>-63.6363636363639</v>
       </c>
       <c r="L357" t="n">
         <v>22.26000000000001</v>
@@ -18552,7 +18574,7 @@
         <v>88.49999999999999</v>
       </c>
       <c r="K358" t="n">
-        <v>-23.07692307692331</v>
+        <v>-71.42857142857186</v>
       </c>
       <c r="L358" t="n">
         <v>22.16</v>
@@ -18603,7 +18625,7 @@
         <v>88.69999999999999</v>
       </c>
       <c r="K359" t="n">
-        <v>-33.33333333333342</v>
+        <v>-71.42857142857186</v>
       </c>
       <c r="L359" t="n">
         <v>22.04000000000001</v>
@@ -18654,7 +18676,7 @@
         <v>88.89999999999999</v>
       </c>
       <c r="K360" t="n">
-        <v>-37.93103448275865</v>
+        <v>-71.42857142857186</v>
       </c>
       <c r="L360" t="n">
         <v>21.92000000000001</v>
@@ -18705,7 +18727,7 @@
         <v>88.89999999999999</v>
       </c>
       <c r="K361" t="n">
-        <v>-42.85714285714288</v>
+        <v>-84.61538461538464</v>
       </c>
       <c r="L361" t="n">
         <v>21.82000000000001</v>
@@ -18756,7 +18778,7 @@
         <v>88.99999999999999</v>
       </c>
       <c r="K362" t="n">
-        <v>-35.71428571428575</v>
+        <v>-66.66666666666737</v>
       </c>
       <c r="L362" t="n">
         <v>21.72000000000001</v>
@@ -18807,7 +18829,7 @@
         <v>89.59999999999999</v>
       </c>
       <c r="K363" t="n">
-        <v>-6.249999999999972</v>
+        <v>0</v>
       </c>
       <c r="L363" t="n">
         <v>21.70000000000001</v>
@@ -18858,7 +18880,7 @@
         <v>90</v>
       </c>
       <c r="K364" t="n">
-        <v>-23.52941176470576</v>
+        <v>-15.78947368421033</v>
       </c>
       <c r="L364" t="n">
         <v>21.66000000000001</v>
@@ -18909,7 +18931,7 @@
         <v>90.40000000000001</v>
       </c>
       <c r="K365" t="n">
-        <v>-8.108108108108091</v>
+        <v>4.347826086956561</v>
       </c>
       <c r="L365" t="n">
         <v>21.67000000000001</v>
@@ -18960,7 +18982,7 @@
         <v>90.7</v>
       </c>
       <c r="K366" t="n">
-        <v>-14.99999999999998</v>
+        <v>-11.99999999999996</v>
       </c>
       <c r="L366" t="n">
         <v>21.65000000000001</v>
@@ -19011,7 +19033,7 @@
         <v>90.90000000000001</v>
       </c>
       <c r="K367" t="n">
-        <v>-19.04761904761899</v>
+        <v>-8.333333333333234</v>
       </c>
       <c r="L367" t="n">
         <v>21.6</v>
@@ -19062,7 +19084,7 @@
         <v>91.2</v>
       </c>
       <c r="K368" t="n">
-        <v>-36.58536585365846</v>
+        <v>-11.99999999999996</v>
       </c>
       <c r="L368" t="n">
         <v>21.55</v>
@@ -19113,7 +19135,7 @@
         <v>92.40000000000001</v>
       </c>
       <c r="K369" t="n">
-        <v>-5.660377358490567</v>
+        <v>31.42857142857124</v>
       </c>
       <c r="L369" t="n">
         <v>21.64000000000001</v>
@@ -19164,7 +19186,7 @@
         <v>93.5</v>
       </c>
       <c r="K370" t="n">
-        <v>-19.3548387096774</v>
+        <v>0</v>
       </c>
       <c r="L370" t="n">
         <v>21.64000000000001</v>
@@ -19215,7 +19237,7 @@
         <v>93.5</v>
       </c>
       <c r="K371" t="n">
-        <v>-16.66666666666666</v>
+        <v>-2.222222222222168</v>
       </c>
       <c r="L371" t="n">
         <v>21.64000000000001</v>
@@ -19266,7 +19288,7 @@
         <v>93.59999999999999</v>
       </c>
       <c r="K372" t="n">
-        <v>-16.66666666666666</v>
+        <v>-15.00000000000004</v>
       </c>
       <c r="L372" t="n">
         <v>21.64000000000001</v>
@@ -19317,7 +19339,7 @@
         <v>93.69999999999999</v>
       </c>
       <c r="K373" t="n">
-        <v>-15.25423728813559</v>
+        <v>-8.108108108108151</v>
       </c>
       <c r="L373" t="n">
         <v>21.57000000000001</v>
@@ -19368,7 +19390,7 @@
         <v>93.69999999999999</v>
       </c>
       <c r="K374" t="n">
-        <v>-12.28070175438598</v>
+        <v>-21.2121212121213</v>
       </c>
       <c r="L374" t="n">
         <v>21.54000000000001</v>
@@ -19419,7 +19441,7 @@
         <v>93.69999999999999</v>
       </c>
       <c r="K375" t="n">
-        <v>-10.71428571428569</v>
+        <v>-13.33333333333335</v>
       </c>
       <c r="L375" t="n">
         <v>21.47000000000001</v>
@@ -19470,7 +19492,7 @@
         <v>93.89999999999999</v>
       </c>
       <c r="K376" t="n">
-        <v>-13.79310344827582</v>
+        <v>-13.33333333333335</v>
       </c>
       <c r="L376" t="n">
         <v>21.41000000000001</v>

--- a/BackTest/2019-10-21 BackTest OGO.xlsx
+++ b/BackTest/2019-10-21 BackTest OGO.xlsx
@@ -451,17 +451,13 @@
         <v>17.20833333333334</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="K2" t="n">
-        <v>17.6</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
@@ -490,22 +486,14 @@
         <v>17.23</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="K3" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -533,22 +521,14 @@
         <v>17.24666666666667</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="K4" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -576,22 +556,14 @@
         <v>17.26166666666667</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="K5" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -619,22 +591,14 @@
         <v>17.28</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="K6" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -662,22 +626,14 @@
         <v>17.29500000000001</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="K7" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -705,22 +661,14 @@
         <v>17.31000000000001</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="K8" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -748,22 +696,14 @@
         <v>17.32833333333334</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="K9" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -791,22 +731,14 @@
         <v>17.33833333333334</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="K10" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -834,22 +766,14 @@
         <v>17.35000000000001</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>17.4</v>
-      </c>
-      <c r="K11" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -877,22 +801,14 @@
         <v>17.36500000000001</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="K12" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -920,22 +836,14 @@
         <v>17.37666666666668</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>17.1</v>
-      </c>
-      <c r="K13" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -963,22 +871,14 @@
         <v>17.38666666666667</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="K14" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -1006,22 +906,14 @@
         <v>17.39500000000001</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>17.1</v>
-      </c>
-      <c r="K15" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1049,22 +941,14 @@
         <v>17.40333333333334</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>17.1</v>
-      </c>
-      <c r="K16" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1092,22 +976,14 @@
         <v>17.41500000000001</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="K17" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1135,22 +1011,14 @@
         <v>17.42333333333334</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>17.1</v>
-      </c>
-      <c r="K18" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1178,22 +1046,14 @@
         <v>17.43500000000001</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="K19" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1221,22 +1081,14 @@
         <v>17.44333333333334</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>17.1</v>
-      </c>
-      <c r="K20" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1264,22 +1116,14 @@
         <v>17.45166666666668</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>17.1</v>
-      </c>
-      <c r="K21" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1307,22 +1151,14 @@
         <v>17.45500000000001</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>17.1</v>
-      </c>
-      <c r="K22" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1350,22 +1186,14 @@
         <v>17.45833333333334</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>17.1</v>
-      </c>
-      <c r="K23" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1393,22 +1221,14 @@
         <v>17.46</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="K24" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1436,22 +1256,14 @@
         <v>17.46166666666667</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="K25" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1479,22 +1291,14 @@
         <v>17.46</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="K26" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1522,22 +1326,14 @@
         <v>17.45833333333334</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="K27" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1565,22 +1361,14 @@
         <v>17.46666666666667</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="K28" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1608,22 +1396,14 @@
         <v>17.47166666666667</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="K29" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1651,22 +1431,14 @@
         <v>17.48</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="K30" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1694,22 +1466,14 @@
         <v>17.48833333333334</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>17.4</v>
-      </c>
-      <c r="K31" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1737,22 +1501,14 @@
         <v>17.495</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="K32" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1780,22 +1536,14 @@
         <v>17.50166666666667</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="K33" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1823,22 +1571,14 @@
         <v>17.50500000000001</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="K34" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1866,22 +1606,14 @@
         <v>17.50333333333334</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>17.4</v>
-      </c>
-      <c r="K35" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1909,22 +1641,14 @@
         <v>17.50666666666667</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>17.4</v>
-      </c>
-      <c r="K36" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1952,22 +1676,14 @@
         <v>17.50833333333334</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="K37" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1995,22 +1711,14 @@
         <v>17.51000000000001</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="K38" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -2038,22 +1746,14 @@
         <v>17.50833333333334</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>17.4</v>
-      </c>
-      <c r="K39" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -2081,22 +1781,14 @@
         <v>17.51000000000001</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="K40" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -2124,22 +1816,14 @@
         <v>17.505</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="K41" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2167,22 +1851,14 @@
         <v>17.51333333333334</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="K42" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2210,22 +1886,14 @@
         <v>17.51333333333334</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="K43" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2253,22 +1921,14 @@
         <v>17.51333333333334</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="K44" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2296,22 +1956,14 @@
         <v>17.50833333333333</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="K45" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2339,22 +1991,14 @@
         <v>17.50833333333333</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="K46" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2382,22 +2026,14 @@
         <v>17.52166666666667</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="K47" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2425,22 +2061,14 @@
         <v>17.51666666666667</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="K48" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2468,22 +2096,14 @@
         <v>17.51833333333333</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="K49" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2511,22 +2131,14 @@
         <v>17.505</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="K50" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2554,22 +2166,14 @@
         <v>17.5</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="K51" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2597,22 +2201,14 @@
         <v>17.48666666666666</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="K52" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2640,22 +2236,14 @@
         <v>17.47166666666666</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>17.1</v>
-      </c>
-      <c r="K53" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2683,22 +2271,14 @@
         <v>17.45666666666666</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>17.1</v>
-      </c>
-      <c r="K54" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2726,22 +2306,14 @@
         <v>17.45666666666666</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="K55" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2769,22 +2341,14 @@
         <v>17.44999999999999</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>17.1</v>
-      </c>
-      <c r="K56" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2812,22 +2376,14 @@
         <v>17.43166666666666</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>17.1</v>
-      </c>
-      <c r="K57" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2855,22 +2411,14 @@
         <v>17.42333333333332</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>17.1</v>
-      </c>
-      <c r="K58" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2898,22 +2446,14 @@
         <v>17.42166666666666</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="K59" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2941,22 +2481,14 @@
         <v>17.41499999999999</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>17</v>
-      </c>
-      <c r="K60" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2984,22 +2516,14 @@
         <v>17.40999999999999</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="K61" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -3027,22 +2551,14 @@
         <v>17.40166666666666</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>17.1</v>
-      </c>
-      <c r="K62" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -3070,22 +2586,14 @@
         <v>17.39666666666666</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>17</v>
-      </c>
-      <c r="K63" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -3113,22 +2621,14 @@
         <v>17.39499999999999</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>17.4</v>
-      </c>
-      <c r="K64" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -3156,22 +2656,14 @@
         <v>17.38833333333332</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>17.1</v>
-      </c>
-      <c r="K65" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -3199,22 +2691,14 @@
         <v>17.38166666666666</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>17.1</v>
-      </c>
-      <c r="K66" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -3242,22 +2726,14 @@
         <v>17.37666666666666</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>17.1</v>
-      </c>
-      <c r="K67" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3285,22 +2761,14 @@
         <v>17.37166666666666</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="K68" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3328,22 +2796,14 @@
         <v>17.36666666666666</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="K69" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3371,22 +2831,14 @@
         <v>17.36666666666666</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="K70" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3414,22 +2866,14 @@
         <v>17.36833333333333</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="K71" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3457,22 +2901,14 @@
         <v>17.36166666666666</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>17</v>
-      </c>
-      <c r="K72" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3500,22 +2936,14 @@
         <v>17.35499999999999</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K73" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3543,22 +2971,14 @@
         <v>17.35666666666666</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="K74" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3586,22 +3006,14 @@
         <v>17.355</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K75" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3629,22 +3041,14 @@
         <v>17.35833333333333</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="K76" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3672,22 +3076,14 @@
         <v>17.36</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="K77" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3715,22 +3111,14 @@
         <v>17.35833333333333</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>17.4</v>
-      </c>
-      <c r="K78" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3758,22 +3146,14 @@
         <v>17.35833333333333</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="K79" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3801,22 +3181,14 @@
         <v>17.35333333333334</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>17</v>
-      </c>
-      <c r="K80" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3844,22 +3216,14 @@
         <v>17.35833333333333</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>17</v>
-      </c>
-      <c r="K81" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3887,22 +3251,14 @@
         <v>17.36833333333334</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="K82" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3930,22 +3286,14 @@
         <v>17.36500000000001</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>17.1</v>
-      </c>
-      <c r="K83" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3973,22 +3321,14 @@
         <v>17.36833333333334</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K84" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -4016,22 +3356,14 @@
         <v>17.36166666666668</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K85" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -4059,22 +3391,14 @@
         <v>17.35666666666668</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>17</v>
-      </c>
-      <c r="K86" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -4102,22 +3426,14 @@
         <v>17.35166666666668</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>17</v>
-      </c>
-      <c r="K87" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -4145,22 +3461,14 @@
         <v>17.34333333333334</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>17</v>
-      </c>
-      <c r="K88" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -4188,22 +3496,14 @@
         <v>17.33833333333335</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>17</v>
-      </c>
-      <c r="K89" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -4231,22 +3531,14 @@
         <v>17.33000000000001</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>17</v>
-      </c>
-      <c r="K90" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -4274,22 +3566,14 @@
         <v>17.32500000000001</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>17</v>
-      </c>
-      <c r="K91" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -4317,22 +3601,14 @@
         <v>17.32000000000001</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="K92" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -4360,22 +3636,14 @@
         <v>17.31833333333335</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="K93" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4403,22 +3671,14 @@
         <v>17.31833333333335</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>17.4</v>
-      </c>
-      <c r="K94" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4446,22 +3706,14 @@
         <v>17.32166666666668</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="K95" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4489,22 +3741,14 @@
         <v>17.31666666666668</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="K96" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4532,22 +3776,14 @@
         <v>17.32166666666668</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="K97" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4575,22 +3811,14 @@
         <v>17.33333333333335</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>17.8</v>
-      </c>
-      <c r="K98" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4618,22 +3846,14 @@
         <v>17.35166666666668</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>18.3</v>
-      </c>
-      <c r="K99" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4661,22 +3881,14 @@
         <v>17.36833333333335</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>18.6</v>
-      </c>
-      <c r="K100" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4710,14 +3922,8 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4751,14 +3957,8 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4792,14 +3992,8 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4833,14 +4027,8 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4874,14 +4062,8 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4915,14 +4097,8 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4956,14 +4132,8 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4997,14 +4167,8 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -5038,14 +4202,8 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -5079,14 +4237,8 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -5120,14 +4272,8 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -5161,14 +4307,8 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -5202,14 +4342,8 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -5243,14 +4377,8 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -5284,14 +4412,8 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -5325,14 +4447,8 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -5366,14 +4482,8 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -5407,14 +4517,8 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -5448,14 +4552,8 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -5489,14 +4587,8 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -5530,14 +4622,8 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -5571,14 +4657,8 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -5612,14 +4692,8 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5653,14 +4727,8 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5694,14 +4762,8 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5735,14 +4797,8 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5776,14 +4832,8 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5817,14 +4867,8 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5858,14 +4902,8 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5899,14 +4937,8 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5940,14 +4972,8 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5981,14 +5007,8 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -6022,14 +5042,8 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -6063,14 +5077,8 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -6104,14 +5112,8 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -6145,14 +5147,8 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -6186,14 +5182,8 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -6227,14 +5217,8 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -6268,14 +5252,8 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -6309,14 +5287,8 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -6350,14 +5322,8 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -6391,14 +5357,8 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -6432,14 +5392,8 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -6473,14 +5427,8 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -6514,14 +5462,8 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -6555,14 +5497,8 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -6596,14 +5532,8 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -6637,14 +5567,8 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -6678,14 +5602,8 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -6719,14 +5637,8 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -6760,14 +5672,8 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -6801,14 +5707,8 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -6842,14 +5742,8 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -6883,14 +5777,8 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -6924,14 +5812,8 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -6965,14 +5847,8 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -7006,14 +5882,8 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -7047,14 +5917,8 @@
         <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -7088,14 +5952,8 @@
         <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -7129,14 +5987,8 @@
         <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -7170,14 +6022,8 @@
         <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -7211,14 +6057,8 @@
         <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -7252,14 +6092,8 @@
         <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -7293,14 +6127,8 @@
         <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -7334,14 +6162,8 @@
         <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -7375,14 +6197,8 @@
         <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -7416,14 +6232,8 @@
         <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -7457,14 +6267,8 @@
         <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -7498,14 +6302,8 @@
         <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -7539,14 +6337,8 @@
         <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -7580,14 +6372,8 @@
         <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -7621,14 +6407,8 @@
         <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -7662,14 +6442,8 @@
         <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -7703,14 +6477,8 @@
         <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -7744,14 +6512,8 @@
         <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -7785,14 +6547,8 @@
         <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -7823,17 +6579,11 @@
         <v>0</v>
       </c>
       <c r="I177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -7867,16 +6617,10 @@
         <v>1</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
       <c r="M178" t="n">
-        <v>1.347272727272727</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179">
@@ -9372,13 +8116,17 @@
         <v>21.26</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="K221" t="n">
+        <v>19.5</v>
+      </c>
       <c r="L221" t="inlineStr"/>
       <c r="M221" t="n">
         <v>1</v>
@@ -9407,14 +8155,22 @@
         <v>21.255</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="K222" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M222" t="n">
         <v>1</v>
       </c>
@@ -9442,14 +8198,22 @@
         <v>21.24</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
       </c>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="K223" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M223" t="n">
         <v>1</v>
       </c>
@@ -9477,13 +8241,17 @@
         <v>21.22833333333334</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
       </c>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="K224" t="n">
+        <v>19.7</v>
+      </c>
       <c r="L224" t="inlineStr"/>
       <c r="M224" t="n">
         <v>1</v>
@@ -9518,8 +8286,14 @@
         <v>0</v>
       </c>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M225" t="n">
         <v>1</v>
       </c>
@@ -9553,8 +8327,14 @@
         <v>0</v>
       </c>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M226" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-21 BackTest OGO.xlsx
+++ b/BackTest/2019-10-21 BackTest OGO.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-127364.0697</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-127354.0697</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>16.2</v>
@@ -521,7 +521,7 @@
         <v>-27250.80959999999</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>16.5</v>
@@ -562,7 +562,7 @@
         <v>-40612.21199999999</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>16.6</v>
@@ -603,7 +603,7 @@
         <v>-40602.21199999999</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>16.4</v>
@@ -644,7 +644,7 @@
         <v>-40602.21199999999</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>16.6</v>
@@ -685,7 +685,7 @@
         <v>-87005.2159</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>16.6</v>
@@ -726,7 +726,7 @@
         <v>-86995.2159</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>16.4</v>
@@ -767,7 +767,7 @@
         <v>-88995.2159</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>16.6</v>
@@ -808,7 +808,7 @@
         <v>-88995.2159</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>16.5</v>
@@ -849,7 +849,7 @@
         <v>54261.65149999999</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>16.5</v>
@@ -890,7 +890,7 @@
         <v>48261.65149999999</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>16.6</v>
@@ -931,7 +931,7 @@
         <v>48271.65149999999</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>16.5</v>
@@ -972,7 +972,7 @@
         <v>36261.65149999999</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>16.8</v>
@@ -1013,7 +1013,7 @@
         <v>36261.65149999999</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>16.6</v>
@@ -1054,7 +1054,7 @@
         <v>36261.65149999999</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>16.6</v>
@@ -1095,7 +1095,7 @@
         <v>36261.65149999999</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>16.6</v>
@@ -1136,9 +1136,11 @@
         <v>36261.65149999999</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>16.6</v>
+      </c>
       <c r="J19" t="n">
         <v>16.2</v>
       </c>
@@ -1175,7 +1177,7 @@
         <v>36271.65149999999</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>16.6</v>
@@ -1216,7 +1218,7 @@
         <v>42694.65149999999</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>16.8</v>
@@ -1257,7 +1259,7 @@
         <v>42694.65149999999</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>16.9</v>
@@ -1298,7 +1300,7 @@
         <v>81509.5282</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>16.9</v>
@@ -1339,9 +1341,11 @@
         <v>87509.5282</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>17.1</v>
+      </c>
       <c r="J24" t="n">
         <v>16.2</v>
       </c>
@@ -6136,9 +6140,11 @@
         <v>-76654.8005999999</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>17</v>
+      </c>
       <c r="J147" t="n">
         <v>16.2</v>
       </c>
@@ -6175,9 +6181,11 @@
         <v>-76654.8005999999</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>17</v>
+      </c>
       <c r="J148" t="n">
         <v>16.2</v>
       </c>
@@ -6214,9 +6222,11 @@
         <v>-76654.8005999999</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>17</v>
+      </c>
       <c r="J149" t="n">
         <v>16.2</v>
       </c>
@@ -6253,9 +6263,11 @@
         <v>-58192.4949999999</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>17</v>
+      </c>
       <c r="J150" t="n">
         <v>16.2</v>
       </c>
@@ -6292,9 +6304,11 @@
         <v>-58192.4949999999</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>17.2</v>
+      </c>
       <c r="J151" t="n">
         <v>16.2</v>
       </c>
@@ -6331,9 +6345,11 @@
         <v>-28271.4949999999</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>17.2</v>
+      </c>
       <c r="J152" t="n">
         <v>16.2</v>
       </c>
@@ -9529,7 +9545,7 @@
         <v>1852760.127542825</v>
       </c>
       <c r="H234" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="n">
@@ -9537,15 +9553,13 @@
       </c>
       <c r="K234" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L234" t="n">
-        <v>1.414753086419753</v>
-      </c>
-      <c r="M234" t="n">
-        <v>1.018518518518519</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -9570,11 +9584,17 @@
         <v>2207678.370742825</v>
       </c>
       <c r="H235" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9603,11 +9623,17 @@
         <v>2275825.742542825</v>
       </c>
       <c r="H236" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9636,11 +9662,17 @@
         <v>2247781.742542825</v>
       </c>
       <c r="H237" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9669,11 +9701,17 @@
         <v>2247781.742542825</v>
       </c>
       <c r="H238" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9702,11 +9740,17 @@
         <v>1916214.605842825</v>
       </c>
       <c r="H239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9735,11 +9779,17 @@
         <v>1991207.661242825</v>
       </c>
       <c r="H240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9771,8 +9821,14 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9801,11 +9857,17 @@
         <v>1935248.804842825</v>
       </c>
       <c r="H242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9834,11 +9896,17 @@
         <v>1935237.804842825</v>
       </c>
       <c r="H243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9867,15 +9935,23 @@
         <v>1827021.109142825</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
+        <v>1.396234567901235</v>
+      </c>
+      <c r="M244" t="n">
+        <v>1.018518518518519</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9900,7 +9976,7 @@
         <v>1827021.109142825</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -9933,7 +10009,7 @@
         <v>1815982.097342825</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -9966,7 +10042,7 @@
         <v>1802525.123842825</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -9999,7 +10075,7 @@
         <v>1781482.447742825</v>
       </c>
       <c r="H248" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -10032,7 +10108,7 @@
         <v>1781482.447742825</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -10065,7 +10141,7 @@
         <v>1825524.285042825</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -10098,7 +10174,7 @@
         <v>1953532.053242825</v>
       </c>
       <c r="H251" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -10131,7 +10207,7 @@
         <v>1350034.245742825</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -10164,7 +10240,7 @@
         <v>1369520.072042825</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -10197,7 +10273,7 @@
         <v>1330706.317042826</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -10230,7 +10306,7 @@
         <v>1467376.525042826</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -10263,7 +10339,7 @@
         <v>1321590.309842826</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -10296,7 +10372,7 @@
         <v>1173292.959242826</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -10329,7 +10405,7 @@
         <v>690047.0740428256</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -10362,7 +10438,7 @@
         <v>553423.5659428256</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -10395,7 +10471,7 @@
         <v>564014.5659428256</v>
       </c>
       <c r="H260" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -10428,7 +10504,7 @@
         <v>564014.5659428256</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -10461,7 +10537,7 @@
         <v>536411.5659428256</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -10494,7 +10570,7 @@
         <v>540810.5659428256</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -10560,7 +10636,7 @@
         <v>549612.5757428256</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -10593,7 +10669,7 @@
         <v>546431.5757428256</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -10626,7 +10702,7 @@
         <v>546431.5757428256</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -10659,7 +10735,7 @@
         <v>533720.8340428256</v>
       </c>
       <c r="H268" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -10692,7 +10768,7 @@
         <v>559667.5597428256</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -10725,7 +10801,7 @@
         <v>542920.0960428256</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -10758,7 +10834,7 @@
         <v>541024.9474428257</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -10791,7 +10867,7 @@
         <v>568451.0490428257</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -10824,7 +10900,7 @@
         <v>292311.2744428257</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -10857,7 +10933,7 @@
         <v>687607.0800428258</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -10890,7 +10966,7 @@
         <v>656028.8260428258</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -10923,7 +10999,7 @@
         <v>678828.8260428258</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -10956,7 +11032,7 @@
         <v>490221.3555428258</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -13332,7 +13408,7 @@
         <v>1398116.488676471</v>
       </c>
       <c r="H349" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -13431,7 +13507,7 @@
         <v>285317.621676471</v>
       </c>
       <c r="H352" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -14817,7 +14893,7 @@
         <v>593964.7682648196</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -14850,7 +14926,7 @@
         <v>599483.7682648196</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -15818,6 +15894,6 @@
       <c r="M424" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-21 BackTest OGO.xlsx
+++ b/BackTest/2019-10-21 BackTest OGO.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -6140,11 +6140,9 @@
         <v>-76654.8005999999</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>17</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="n">
         <v>16.2</v>
       </c>
@@ -6181,11 +6179,9 @@
         <v>-76654.8005999999</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>17</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="n">
         <v>16.2</v>
       </c>
@@ -6222,11 +6218,9 @@
         <v>-76654.8005999999</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I149" t="n">
-        <v>17</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="n">
         <v>16.2</v>
       </c>
@@ -6263,11 +6257,9 @@
         <v>-58192.4949999999</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I150" t="n">
-        <v>17</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="n">
         <v>16.2</v>
       </c>
@@ -6304,11 +6296,9 @@
         <v>-58192.4949999999</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I151" t="n">
-        <v>17.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="n">
         <v>16.2</v>
       </c>
@@ -6345,11 +6335,9 @@
         <v>-28271.4949999999</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
-      </c>
-      <c r="I152" t="n">
-        <v>17.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="n">
         <v>16.2</v>
       </c>
@@ -9935,7 +9923,7 @@
         <v>1827021.109142825</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="n">
@@ -9943,15 +9931,13 @@
       </c>
       <c r="K244" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L244" t="n">
-        <v>1.396234567901235</v>
-      </c>
-      <c r="M244" t="n">
-        <v>1.018518518518519</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9976,11 +9962,17 @@
         <v>1827021.109142825</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -10009,11 +10001,17 @@
         <v>1815982.097342825</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -10042,11 +10040,17 @@
         <v>1802525.123842825</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -10075,11 +10079,17 @@
         <v>1781482.447742825</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -10108,11 +10118,17 @@
         <v>1781482.447742825</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -10141,11 +10157,17 @@
         <v>1825524.285042825</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -10174,11 +10196,17 @@
         <v>1953532.053242825</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -10207,11 +10235,17 @@
         <v>1350034.245742825</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -10240,11 +10274,17 @@
         <v>1369520.072042825</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -10273,11 +10313,17 @@
         <v>1330706.317042826</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -10306,11 +10352,17 @@
         <v>1467376.525042826</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -10339,11 +10391,17 @@
         <v>1321590.309842826</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -10372,11 +10430,17 @@
         <v>1173292.959242826</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -10405,11 +10469,17 @@
         <v>690047.0740428256</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -10438,11 +10508,17 @@
         <v>553423.5659428256</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10471,11 +10547,17 @@
         <v>564014.5659428256</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10507,12 +10589,20 @@
         <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
+        <v>1.266604938271605</v>
+      </c>
+      <c r="M261" t="n">
+        <v>1.018518518518519</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -10603,7 +10693,7 @@
         <v>540810.5659428256</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -10735,7 +10825,7 @@
         <v>533720.8340428256</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -10768,7 +10858,7 @@
         <v>559667.5597428256</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -10801,7 +10891,7 @@
         <v>542920.0960428256</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -10834,7 +10924,7 @@
         <v>541024.9474428257</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -10867,7 +10957,7 @@
         <v>568451.0490428257</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -10900,7 +10990,7 @@
         <v>292311.2744428257</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -10933,7 +11023,7 @@
         <v>687607.0800428258</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -10966,7 +11056,7 @@
         <v>656028.8260428258</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -10999,7 +11089,7 @@
         <v>678828.8260428258</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -11032,7 +11122,7 @@
         <v>490221.3555428258</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -14893,7 +14983,7 @@
         <v>593964.7682648196</v>
       </c>
       <c r="H394" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -14926,7 +15016,7 @@
         <v>599483.7682648196</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -15894,6 +15984,6 @@
       <c r="M424" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-21 BackTest OGO.xlsx
+++ b/BackTest/2019-10-21 BackTest OGO.xlsx
@@ -1177,11 +1177,9 @@
         <v>36271.65149999999</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>16.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="n">
         <v>16.2</v>
       </c>
@@ -1218,11 +1216,9 @@
         <v>42694.65149999999</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>16.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="n">
         <v>16.2</v>
       </c>
@@ -1259,11 +1255,9 @@
         <v>42694.65149999999</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>16.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="n">
         <v>16.2</v>
       </c>
@@ -1300,11 +1294,9 @@
         <v>81509.5282</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>16.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="n">
         <v>16.2</v>
       </c>
@@ -1341,11 +1333,9 @@
         <v>87509.5282</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>17.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="n">
         <v>16.2</v>
       </c>
@@ -9650,7 +9640,7 @@
         <v>2247781.742542825</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="n">
@@ -9658,13 +9648,15 @@
       </c>
       <c r="K237" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+        <v>1.464135802469136</v>
+      </c>
+      <c r="M237" t="n">
+        <v>1.018518518518519</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9689,17 +9681,11 @@
         <v>2247781.742542825</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9728,17 +9714,11 @@
         <v>1916214.605842825</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9767,17 +9747,11 @@
         <v>1991207.661242825</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9806,17 +9780,11 @@
         <v>1935248.804842825</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9845,17 +9813,11 @@
         <v>1935248.804842825</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9884,17 +9846,11 @@
         <v>1935237.804842825</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9923,17 +9879,11 @@
         <v>1827021.109142825</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9962,17 +9912,11 @@
         <v>1827021.109142825</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -10001,17 +9945,11 @@
         <v>1815982.097342825</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -10040,17 +9978,11 @@
         <v>1802525.123842825</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -10079,17 +10011,11 @@
         <v>1781482.447742825</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -10121,14 +10047,8 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -10160,14 +10080,8 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -10199,14 +10113,8 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -10238,14 +10146,8 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -10277,14 +10179,8 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -10316,14 +10212,8 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -10355,14 +10245,8 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -10394,14 +10278,8 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -10433,14 +10311,8 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -10472,14 +10344,8 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -10511,14 +10377,8 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10550,14 +10410,8 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10586,23 +10440,15 @@
         <v>564014.5659428256</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
-        <v>1.266604938271605</v>
-      </c>
-      <c r="M261" t="n">
-        <v>1.018518518518519</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -10627,7 +10473,7 @@
         <v>536411.5659428256</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -10660,7 +10506,7 @@
         <v>540810.5659428256</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -10693,7 +10539,7 @@
         <v>540810.5659428256</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -10726,7 +10572,7 @@
         <v>549612.5757428256</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -10759,7 +10605,7 @@
         <v>546431.5757428256</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -10792,7 +10638,7 @@
         <v>546431.5757428256</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
